--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -93,7 +93,7 @@
     </r>
   </si>
   <si>
-    <t>処理概要</t>
+    <t xml:space="preserve">処理概要 </t>
   </si>
   <si>
     <r>
@@ -103,21 +103,7 @@
         <color indexed="11"/>
         <rFont val="游ゴシック"/>
       </rPr>
-      <t>処理概要 - 表1</t>
-    </r>
-  </si>
-  <si>
-    <t>表1-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="11"/>
-        <rFont val="游ゴシック"/>
-      </rPr>
-      <t>処理概要 - 表1-1</t>
+      <t xml:space="preserve">処理概要 </t>
     </r>
   </si>
   <si>
@@ -321,9 +307,6 @@
     <t>取消</t>
   </si>
   <si>
-    <t xml:space="preserve">処理概要 </t>
-  </si>
-  <si>
     <t>KK04001_Controller</t>
   </si>
   <si>
@@ -369,26 +352,40 @@
     <t>1-2. 入力エラーが発生していない場合</t>
   </si>
   <si>
-    <t>勤務報告書登録のメソッドを呼び出し、入力された情報の登録を行う</t>
+    <t>入力された勤怠情報の登録を行う。</t>
   </si>
   <si>
-    <t>backKK02001</t>
+    <t>getoutFromKK04001</t>
   </si>
   <si>
-    <t>1. 戻り値（月別一覧画面のパス）を返し、月別一覧画面を表示する。</t>
+    <t>1.「取消ボタン」または「月別一覧へ戻る」が押下された場合に次の条件で遷移先をリダイレクトする。</t>
   </si>
   <si>
-    <t>cancelWorkReportDecision</t>
+    <t>1-1. 社員ID(KK03001で取得したパラメータ)が存在しない場合</t>
   </si>
   <si>
-    <t>1. 戻り値（社員一覧画面のパス）を返し、社員一覧画面を表示する。</t>
+    <t>月別一覧(KK02001)を呼び出すメソッドへリダイレクトする。</t>
+  </si>
+  <si>
+    <t>1-2. 社員ID(KK03001で取得したパラメータ)が存在する場合、以下の条件でリダイレクト先を指定する。</t>
+  </si>
+  <si>
+    <t>1-2-1. 社員IDとログインしているユーザーIDが等しいとき</t>
+  </si>
+  <si>
+    <t>1-2-2. 社員IDとログインしているユーザーIDが等しくないとき</t>
+  </si>
+  <si>
+    <t>社員一覧(KK03001)を呼び出すメソッドへリダイレクトする。</t>
   </si>
   <si>
     <t>determineWorkReport</t>
   </si>
   <si>
-    <t>1. 勤務報告確定メソッドを呼び出して、勤務報告書の内容を確定する。 -　社員が勤務報告書を変更できないようにして、自画面を再表示する。</t>
+    <t>1. 該当社員の勤務報告書の内容を確定する。</t>
+  </si>
+  <si>
+    <t>　社員が勤務報告書を変更できないよう(work_report_monthlyテーブルのauth_flg=“1”)にして、自画面を再表示する。</t>
   </si>
   <si>
     <t>使用テーブル</t>
@@ -519,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -994,13 +991,225 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1320,6 +1529,147 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2599,7 +2949,7 @@
     <row r="19" ht="13" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" t="s" s="3">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2612,14 +2962,14 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="E20" s="21"/>
     </row>
     <row r="21" ht="13" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" t="s" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2632,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="12"/>
     </row>
@@ -2643,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s" s="24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" s="21"/>
     </row>
@@ -2659,8 +3009,8 @@
     <hyperlink ref="D14" location="'更新履歴'!R1C1" tooltip="" display="更新履歴"/>
     <hyperlink ref="D16" location="'画面デザイン'!R1C1" tooltip="" display="画面デザイン"/>
     <hyperlink ref="D18" location="'入出力項目'!R1C1" tooltip="" display="入出力項目"/>
-    <hyperlink ref="D20" location="'処理概要 '!R1C1" tooltip="" display="処理概要 - 表1"/>
-    <hyperlink ref="D21" location="'(null)'!R1C1" tooltip="" display="処理概要 - 表1-1"/>
+    <hyperlink ref="D20" location="'処理概要 '!R1C1" tooltip="" display="処理概要 "/>
+    <hyperlink ref="D22" location="'備考'!R1C1" tooltip="" display="備考"/>
     <hyperlink ref="D23" location="'備考'!R1C1" tooltip="" display="備考"/>
     <hyperlink ref="D12" location="'表紙'!R1C1" tooltip="" display="表紙"/>
     <hyperlink ref="D14" location="'更新履歴'!R1C1" tooltip="" display="更新履歴"/>
@@ -2809,7 +3159,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="31"/>
       <c r="J4" t="s" s="34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
@@ -2986,14 +3336,14 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
       <c r="J9" t="s" s="37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
       <c r="O9" t="s" s="39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
@@ -3060,14 +3410,14 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
       <c r="J11" t="s" s="37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
       <c r="O11" t="s" s="39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
@@ -3239,19 +3589,19 @@
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
       <c r="J16" t="s" s="41">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" t="s" s="43">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="45"/>
       <c r="R16" t="s" s="41">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
@@ -3280,7 +3630,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
       <c r="J17" t="s" s="41">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
@@ -3292,7 +3642,7 @@
       <c r="P17" s="46"/>
       <c r="Q17" s="45"/>
       <c r="R17" t="s" s="41">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -3666,14 +4016,14 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" t="s" s="52">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -3691,17 +4041,17 @@
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
       <c r="V1" t="s" s="50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W1" s="51"/>
       <c r="X1" t="s" s="50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
       <c r="AB1" t="s" s="50">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
@@ -3713,14 +4063,14 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" t="s" s="52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
@@ -3738,7 +4088,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
       <c r="V2" t="s" s="50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W2" s="51"/>
       <c r="X2" s="55">
@@ -3748,7 +4098,7 @@
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
       <c r="AB2" t="s" s="50">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="51"/>
       <c r="AD2" s="55">
@@ -3868,18 +4218,18 @@
     <row r="6" ht="25.5" customHeight="1">
       <c r="A6" s="60"/>
       <c r="B6" t="s" s="61">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
       <c r="E6" t="s" s="63">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="65"/>
       <c r="I6" t="s" s="63">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="64"/>
@@ -3901,7 +4251,7 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="65"/>
       <c r="AC6" t="s" s="63">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD6" s="64"/>
       <c r="AE6" s="66"/>
@@ -3922,7 +4272,7 @@
       <c r="G7" s="72"/>
       <c r="H7" s="73"/>
       <c r="I7" t="s" s="74">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J7" s="75"/>
       <c r="K7" s="75"/>
@@ -3944,7 +4294,7 @@
       <c r="AA7" s="75"/>
       <c r="AB7" s="76"/>
       <c r="AC7" t="s" s="77">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD7" s="78"/>
       <c r="AE7" s="79"/>
@@ -4732,14 +5082,14 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" t="s" s="52">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -4757,17 +5107,17 @@
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
       <c r="V1" t="s" s="50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W1" s="51"/>
       <c r="X1" t="s" s="50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
       <c r="AB1" t="s" s="50">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
@@ -4779,14 +5129,14 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" t="s" s="52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
@@ -4804,7 +5154,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
       <c r="V2" t="s" s="50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W2" s="51"/>
       <c r="X2" s="55">
@@ -4814,7 +5164,7 @@
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
       <c r="AB2" t="s" s="50">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="51"/>
       <c r="AD2" s="55">
@@ -5704,14 +6054,14 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" t="s" s="52">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -5729,17 +6079,17 @@
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
       <c r="V1" t="s" s="50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W1" s="51"/>
       <c r="X1" t="s" s="50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
       <c r="AB1" t="s" s="50">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
@@ -5751,14 +6101,14 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" t="s" s="52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
@@ -5776,7 +6126,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
       <c r="V2" t="s" s="50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W2" s="51"/>
       <c r="X2" s="55">
@@ -5786,7 +6136,7 @@
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
       <c r="AB2" t="s" s="50">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="51"/>
       <c r="AD2" s="55">
@@ -5869,11 +6219,11 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="45"/>
       <c r="B5" t="s" s="95">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" t="s" s="95">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
@@ -5881,7 +6231,7 @@
       <c r="H5" s="96"/>
       <c r="I5" s="96"/>
       <c r="J5" t="s" s="95">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5" s="96"/>
       <c r="L5" s="96"/>
@@ -5889,19 +6239,19 @@
       <c r="N5" s="96"/>
       <c r="O5" s="96"/>
       <c r="P5" t="s" s="95">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="96"/>
       <c r="R5" s="96"/>
       <c r="S5" s="96"/>
       <c r="T5" t="s" s="95">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U5" s="96"/>
       <c r="V5" s="96"/>
       <c r="W5" s="96"/>
       <c r="X5" t="s" s="95">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y5" s="96"/>
       <c r="Z5" s="96"/>
@@ -5920,7 +6270,7 @@
       </c>
       <c r="C6" s="83"/>
       <c r="D6" t="s" s="98">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -5928,7 +6278,7 @@
       <c r="H6" s="83"/>
       <c r="I6" s="83"/>
       <c r="J6" t="s" s="98">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
@@ -5936,19 +6286,19 @@
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
       <c r="P6" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="100"/>
       <c r="R6" s="100"/>
       <c r="S6" s="100"/>
       <c r="T6" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U6" s="100"/>
       <c r="V6" s="100"/>
       <c r="W6" s="100"/>
       <c r="X6" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="100"/>
       <c r="Z6" s="100"/>
@@ -5967,7 +6317,7 @@
       </c>
       <c r="C7" s="83"/>
       <c r="D7" t="s" s="98">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="83"/>
       <c r="F7" s="83"/>
@@ -5975,7 +6325,7 @@
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
       <c r="J7" t="s" s="98">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7" s="83"/>
       <c r="L7" s="83"/>
@@ -5983,19 +6333,19 @@
       <c r="N7" s="83"/>
       <c r="O7" s="83"/>
       <c r="P7" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="100"/>
       <c r="R7" s="100"/>
       <c r="S7" s="100"/>
       <c r="T7" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U7" s="100"/>
       <c r="V7" s="100"/>
       <c r="W7" s="100"/>
       <c r="X7" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y7" s="100"/>
       <c r="Z7" s="100"/>
@@ -6014,7 +6364,7 @@
       </c>
       <c r="C8" s="83"/>
       <c r="D8" t="s" s="98">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="83"/>
       <c r="F8" s="83"/>
@@ -6022,7 +6372,7 @@
       <c r="H8" s="83"/>
       <c r="I8" s="83"/>
       <c r="J8" t="s" s="98">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="83"/>
       <c r="L8" s="83"/>
@@ -6030,19 +6380,19 @@
       <c r="N8" s="83"/>
       <c r="O8" s="83"/>
       <c r="P8" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="100"/>
       <c r="R8" s="100"/>
       <c r="S8" s="100"/>
       <c r="T8" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U8" s="100"/>
       <c r="V8" s="100"/>
       <c r="W8" s="100"/>
       <c r="X8" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y8" s="100"/>
       <c r="Z8" s="100"/>
@@ -6061,7 +6411,7 @@
       </c>
       <c r="C9" s="83"/>
       <c r="D9" t="s" s="98">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="83"/>
       <c r="F9" s="83"/>
@@ -6069,7 +6419,7 @@
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
       <c r="J9" t="s" s="98">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="83"/>
       <c r="L9" s="83"/>
@@ -6077,19 +6427,19 @@
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
       <c r="P9" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="100"/>
       <c r="R9" s="100"/>
       <c r="S9" s="100"/>
       <c r="T9" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U9" s="100"/>
       <c r="V9" s="100"/>
       <c r="W9" s="100"/>
       <c r="X9" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y9" s="100"/>
       <c r="Z9" s="100"/>
@@ -6108,7 +6458,7 @@
       </c>
       <c r="C10" s="83"/>
       <c r="D10" t="s" s="98">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="83"/>
@@ -6116,7 +6466,7 @@
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
       <c r="J10" t="s" s="98">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83"/>
@@ -6124,19 +6474,19 @@
       <c r="N10" s="83"/>
       <c r="O10" s="83"/>
       <c r="P10" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="100"/>
       <c r="R10" s="100"/>
       <c r="S10" s="100"/>
       <c r="T10" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U10" s="100"/>
       <c r="V10" s="100"/>
       <c r="W10" s="100"/>
       <c r="X10" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y10" s="100"/>
       <c r="Z10" s="100"/>
@@ -6155,7 +6505,7 @@
       </c>
       <c r="C11" s="83"/>
       <c r="D11" t="s" s="98">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="83"/>
@@ -6163,7 +6513,7 @@
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
       <c r="J11" t="s" s="98">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="83"/>
       <c r="L11" s="83"/>
@@ -6171,19 +6521,19 @@
       <c r="N11" s="83"/>
       <c r="O11" s="83"/>
       <c r="P11" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="100"/>
       <c r="R11" s="100"/>
       <c r="S11" s="100"/>
       <c r="T11" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U11" s="100"/>
       <c r="V11" s="100"/>
       <c r="W11" s="100"/>
       <c r="X11" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y11" s="100"/>
       <c r="Z11" s="100"/>
@@ -6202,7 +6552,7 @@
       </c>
       <c r="C12" s="83"/>
       <c r="D12" t="s" s="98">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="83"/>
       <c r="F12" s="83"/>
@@ -6210,7 +6560,7 @@
       <c r="H12" s="83"/>
       <c r="I12" s="83"/>
       <c r="J12" t="s" s="98">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
@@ -6218,19 +6568,19 @@
       <c r="N12" s="83"/>
       <c r="O12" s="83"/>
       <c r="P12" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="100"/>
       <c r="R12" s="100"/>
       <c r="S12" s="100"/>
       <c r="T12" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U12" s="100"/>
       <c r="V12" s="100"/>
       <c r="W12" s="100"/>
       <c r="X12" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y12" s="100"/>
       <c r="Z12" s="100"/>
@@ -6249,7 +6599,7 @@
       </c>
       <c r="C13" s="83"/>
       <c r="D13" t="s" s="98">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="83"/>
       <c r="F13" s="83"/>
@@ -6257,7 +6607,7 @@
       <c r="H13" s="83"/>
       <c r="I13" s="83"/>
       <c r="J13" t="s" s="98">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
@@ -6265,19 +6615,19 @@
       <c r="N13" s="83"/>
       <c r="O13" s="83"/>
       <c r="P13" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="100"/>
       <c r="R13" s="100"/>
       <c r="S13" s="100"/>
       <c r="T13" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U13" s="100"/>
       <c r="V13" s="100"/>
       <c r="W13" s="100"/>
       <c r="X13" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y13" s="100"/>
       <c r="Z13" s="100"/>
@@ -6296,7 +6646,7 @@
       </c>
       <c r="C14" s="83"/>
       <c r="D14" t="s" s="98">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
@@ -6304,7 +6654,7 @@
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
       <c r="J14" t="s" s="98">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
@@ -6312,19 +6662,19 @@
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
       <c r="P14" t="s" s="99">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="100"/>
       <c r="R14" s="100"/>
       <c r="S14" s="100"/>
       <c r="T14" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U14" s="100"/>
       <c r="V14" s="100"/>
       <c r="W14" s="100"/>
       <c r="X14" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y14" s="100"/>
       <c r="Z14" s="100"/>
@@ -6343,7 +6693,7 @@
       </c>
       <c r="C15" s="83"/>
       <c r="D15" t="s" s="98">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="83"/>
       <c r="F15" s="83"/>
@@ -6351,7 +6701,7 @@
       <c r="H15" s="83"/>
       <c r="I15" s="83"/>
       <c r="J15" t="s" s="98">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
@@ -6359,19 +6709,19 @@
       <c r="N15" s="83"/>
       <c r="O15" s="83"/>
       <c r="P15" t="s" s="99">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="100"/>
       <c r="R15" s="100"/>
       <c r="S15" s="100"/>
       <c r="T15" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U15" s="100"/>
       <c r="V15" s="100"/>
       <c r="W15" s="100"/>
       <c r="X15" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y15" s="100"/>
       <c r="Z15" s="100"/>
@@ -6390,7 +6740,7 @@
       </c>
       <c r="C16" s="83"/>
       <c r="D16" t="s" s="98">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
@@ -6398,7 +6748,7 @@
       <c r="H16" s="83"/>
       <c r="I16" s="83"/>
       <c r="J16" t="s" s="98">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
@@ -6406,19 +6756,19 @@
       <c r="N16" s="83"/>
       <c r="O16" s="83"/>
       <c r="P16" t="s" s="99">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="100"/>
       <c r="R16" s="100"/>
       <c r="S16" s="100"/>
       <c r="T16" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U16" s="100"/>
       <c r="V16" s="100"/>
       <c r="W16" s="100"/>
       <c r="X16" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y16" s="100"/>
       <c r="Z16" s="100"/>
@@ -6437,7 +6787,7 @@
       </c>
       <c r="C17" s="83"/>
       <c r="D17" t="s" s="98">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="83"/>
@@ -6445,7 +6795,7 @@
       <c r="H17" s="83"/>
       <c r="I17" s="83"/>
       <c r="J17" t="s" s="98">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" s="83"/>
       <c r="L17" s="83"/>
@@ -6453,19 +6803,19 @@
       <c r="N17" s="83"/>
       <c r="O17" s="83"/>
       <c r="P17" t="s" s="99">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="100"/>
       <c r="R17" s="100"/>
       <c r="S17" s="100"/>
       <c r="T17" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U17" s="100"/>
       <c r="V17" s="100"/>
       <c r="W17" s="100"/>
       <c r="X17" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y17" s="100"/>
       <c r="Z17" s="100"/>
@@ -6484,7 +6834,7 @@
       </c>
       <c r="C18" s="83"/>
       <c r="D18" t="s" s="98">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" s="83"/>
       <c r="F18" s="83"/>
@@ -6492,7 +6842,7 @@
       <c r="H18" s="83"/>
       <c r="I18" s="83"/>
       <c r="J18" t="s" s="98">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83"/>
@@ -6500,19 +6850,19 @@
       <c r="N18" s="83"/>
       <c r="O18" s="83"/>
       <c r="P18" t="s" s="99">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
       <c r="S18" s="100"/>
       <c r="T18" t="s" s="99">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U18" s="100"/>
       <c r="V18" s="100"/>
       <c r="W18" s="100"/>
       <c r="X18" t="s" s="99">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y18" s="100"/>
       <c r="Z18" s="100"/>
@@ -6918,7 +7268,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG85"/>
+  <dimension ref="A1:AG58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6933,14 +7283,14 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" t="s" s="52">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -6958,17 +7308,17 @@
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
       <c r="V1" t="s" s="50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W1" s="51"/>
       <c r="X1" t="s" s="50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
       <c r="AB1" t="s" s="50">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
@@ -6980,14 +7330,14 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" t="s" s="52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
@@ -7005,7 +7355,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
       <c r="V2" t="s" s="50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W2" s="51"/>
       <c r="X2" s="55">
@@ -7015,7 +7365,7 @@
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
       <c r="AB2" t="s" s="50">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="51"/>
       <c r="AD2" s="55">
@@ -7063,7 +7413,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" t="s" s="103">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -7136,12 +7486,12 @@
       <c r="A6" s="32"/>
       <c r="B6" s="31"/>
       <c r="C6" t="s" s="74">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="83"/>
       <c r="F6" t="s" s="104">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -7156,11 +7506,11 @@
       <c r="Q6" s="36"/>
       <c r="R6" s="57"/>
       <c r="S6" t="s" s="74">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T6" s="76"/>
       <c r="U6" t="s" s="74">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V6" s="75"/>
       <c r="W6" s="75"/>
@@ -7195,11 +7545,11 @@
       <c r="Q7" s="33"/>
       <c r="R7" s="48"/>
       <c r="S7" t="s" s="74">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T7" s="76"/>
       <c r="U7" t="s" s="74">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V7" s="75"/>
       <c r="W7" s="75"/>
@@ -7254,7 +7604,7 @@
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
       <c r="D9" t="s" s="103">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -7395,12 +7745,12 @@
       <c r="A13" s="32"/>
       <c r="B13" s="31"/>
       <c r="C13" t="s" s="74">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="83"/>
       <c r="F13" t="s" s="104">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -7415,11 +7765,11 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="57"/>
       <c r="S13" t="s" s="74">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T13" s="76"/>
       <c r="U13" t="s" s="74">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V13" s="75"/>
       <c r="W13" s="75"/>
@@ -7454,11 +7804,11 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="48"/>
       <c r="S14" t="s" s="74">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T14" s="76"/>
       <c r="U14" t="s" s="74">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V14" s="75"/>
       <c r="W14" s="75"/>
@@ -7513,7 +7863,7 @@
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" t="s" s="103">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -7654,12 +8004,12 @@
       <c r="A20" s="32"/>
       <c r="B20" s="31"/>
       <c r="C20" t="s" s="74">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="76"/>
       <c r="E20" s="83"/>
       <c r="F20" t="s" s="104">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
@@ -7674,11 +8024,11 @@
       <c r="Q20" s="36"/>
       <c r="R20" s="57"/>
       <c r="S20" t="s" s="74">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T20" s="76"/>
       <c r="U20" t="s" s="74">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V20" s="75"/>
       <c r="W20" s="75"/>
@@ -7713,11 +8063,11 @@
       <c r="Q21" s="33"/>
       <c r="R21" s="48"/>
       <c r="S21" t="s" s="74">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T21" s="76"/>
       <c r="U21" t="s" s="74">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V21" s="75"/>
       <c r="W21" s="75"/>
@@ -7772,7 +8122,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="D23" t="s" s="103">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -7810,7 +8160,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="30"/>
       <c r="E24" t="s" s="103">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -7848,7 +8198,7 @@
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" t="s" s="103">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -7919,7 +8269,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="30"/>
       <c r="E27" t="s" s="103">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -7957,7 +8307,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" t="s" s="103">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -8130,716 +8480,710 @@
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="32"/>
       <c r="B33" s="31"/>
-      <c r="C33" t="s" s="74">
+      <c r="C33" t="s" s="107">
+        <v>74</v>
+      </c>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" t="s" s="110">
+        <v>89</v>
+      </c>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="112"/>
+      <c r="S33" t="s" s="107">
+        <v>76</v>
+      </c>
+      <c r="T33" s="108"/>
+      <c r="U33" t="s" s="107">
         <v>77</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="83"/>
-      <c r="F33" t="s" s="104">
-        <v>92</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="57"/>
-      <c r="S33" t="s" s="74">
-        <v>79</v>
-      </c>
-      <c r="T33" s="76"/>
-      <c r="U33" t="s" s="74">
-        <v>80</v>
-      </c>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="76"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="108"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="31"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="48"/>
-      <c r="S34" t="s" s="74">
-        <v>81</v>
-      </c>
-      <c r="T34" s="76"/>
-      <c r="U34" t="s" s="74">
-        <v>49</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="76"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="116"/>
+      <c r="S34" t="s" s="107">
+        <v>78</v>
+      </c>
+      <c r="T34" s="108"/>
+      <c r="U34" t="s" s="107">
+        <v>47</v>
+      </c>
+      <c r="V34" s="113"/>
+      <c r="W34" s="113"/>
+      <c r="X34" s="113"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="113"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="113"/>
+      <c r="AE34" s="108"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="31"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="57"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="111"/>
+      <c r="AA35" s="111"/>
+      <c r="AB35" s="111"/>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="112"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="31"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="32"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" t="s" s="103">
-        <v>93</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="31"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="119"/>
+      <c r="AD36" s="119"/>
+      <c r="AE36" s="120"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="31"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="31"/>
+      <c r="C37" s="121"/>
+      <c r="D37" t="s" s="122">
+        <v>90</v>
+      </c>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="119"/>
+      <c r="X37" s="119"/>
+      <c r="Y37" s="119"/>
+      <c r="Z37" s="119"/>
+      <c r="AA37" s="119"/>
+      <c r="AB37" s="119"/>
+      <c r="AC37" s="122"/>
+      <c r="AD37" s="119"/>
+      <c r="AE37" s="123"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="31"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="48"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="119"/>
+      <c r="E38" t="s" s="122">
+        <v>91</v>
+      </c>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="119"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="119"/>
+      <c r="V38" s="119"/>
+      <c r="W38" s="119"/>
+      <c r="X38" s="119"/>
+      <c r="Y38" s="119"/>
+      <c r="Z38" s="119"/>
+      <c r="AA38" s="119"/>
+      <c r="AB38" s="119"/>
+      <c r="AC38" s="119"/>
+      <c r="AD38" s="119"/>
+      <c r="AE38" s="125"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="31"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="75"/>
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="75"/>
-      <c r="AA39" s="75"/>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="75"/>
-      <c r="AE39" s="75"/>
-      <c r="AF39" s="30"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" t="s" s="129">
+        <v>92</v>
+      </c>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="128"/>
+      <c r="U39" s="128"/>
+      <c r="V39" s="128"/>
+      <c r="W39" s="128"/>
+      <c r="X39" s="128"/>
+      <c r="Y39" s="128"/>
+      <c r="Z39" s="128"/>
+      <c r="AA39" s="128"/>
+      <c r="AB39" s="128"/>
+      <c r="AC39" s="128"/>
+      <c r="AD39" s="128"/>
+      <c r="AE39" s="130"/>
+      <c r="AF39" s="131"/>
       <c r="AG39" s="31"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="32"/>
-      <c r="B40" s="31"/>
-      <c r="C40" t="s" s="74">
-        <v>77</v>
-      </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="83"/>
-      <c r="F40" t="s" s="104">
-        <v>94</v>
-      </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="57"/>
-      <c r="S40" t="s" s="74">
-        <v>79</v>
-      </c>
-      <c r="T40" s="76"/>
-      <c r="U40" t="s" s="74">
-        <v>80</v>
-      </c>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="75"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="75"/>
-      <c r="AE40" s="76"/>
-      <c r="AF40" s="32"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128"/>
+      <c r="Q40" s="128"/>
+      <c r="R40" s="128"/>
+      <c r="S40" s="128"/>
+      <c r="T40" s="128"/>
+      <c r="U40" s="128"/>
+      <c r="V40" s="128"/>
+      <c r="W40" s="128"/>
+      <c r="X40" s="128"/>
+      <c r="Y40" s="128"/>
+      <c r="Z40" s="128"/>
+      <c r="AA40" s="128"/>
+      <c r="AB40" s="128"/>
+      <c r="AC40" s="128"/>
+      <c r="AD40" s="128"/>
+      <c r="AE40" s="133"/>
+      <c r="AF40" s="131"/>
       <c r="AG40" s="31"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="32"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="48"/>
-      <c r="S41" t="s" s="74">
-        <v>81</v>
-      </c>
-      <c r="T41" s="76"/>
-      <c r="U41" t="s" s="74">
-        <v>49</v>
-      </c>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="75"/>
-      <c r="AB41" s="75"/>
-      <c r="AC41" s="75"/>
-      <c r="AD41" s="75"/>
-      <c r="AE41" s="76"/>
-      <c r="AF41" s="32"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="128"/>
+      <c r="E41" t="s" s="122">
+        <v>93</v>
+      </c>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="128"/>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+      <c r="W41" s="128"/>
+      <c r="X41" s="128"/>
+      <c r="Y41" s="128"/>
+      <c r="Z41" s="128"/>
+      <c r="AA41" s="128"/>
+      <c r="AB41" s="128"/>
+      <c r="AC41" s="128"/>
+      <c r="AD41" s="128"/>
+      <c r="AE41" s="133"/>
+      <c r="AF41" s="131"/>
       <c r="AG41" s="31"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="32"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="32"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" t="s" s="129">
+        <v>94</v>
+      </c>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="128"/>
+      <c r="W42" s="128"/>
+      <c r="X42" s="128"/>
+      <c r="Y42" s="128"/>
+      <c r="Z42" s="128"/>
+      <c r="AA42" s="128"/>
+      <c r="AB42" s="128"/>
+      <c r="AC42" s="128"/>
+      <c r="AD42" s="128"/>
+      <c r="AE42" s="133"/>
+      <c r="AF42" s="131"/>
       <c r="AG42" s="31"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="32"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" t="s" s="103">
-        <v>95</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="32"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" t="s" s="129">
+        <v>92</v>
+      </c>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="128"/>
+      <c r="W43" s="128"/>
+      <c r="X43" s="128"/>
+      <c r="Y43" s="128"/>
+      <c r="Z43" s="128"/>
+      <c r="AA43" s="128"/>
+      <c r="AB43" s="128"/>
+      <c r="AC43" s="128"/>
+      <c r="AD43" s="128"/>
+      <c r="AE43" s="133"/>
+      <c r="AF43" s="131"/>
       <c r="AG43" s="31"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="32"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="32"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+      <c r="S44" s="128"/>
+      <c r="T44" s="128"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="128"/>
+      <c r="W44" s="128"/>
+      <c r="X44" s="128"/>
+      <c r="Y44" s="128"/>
+      <c r="Z44" s="128"/>
+      <c r="AA44" s="128"/>
+      <c r="AB44" s="128"/>
+      <c r="AC44" s="128"/>
+      <c r="AD44" s="128"/>
+      <c r="AE44" s="133"/>
+      <c r="AF44" s="131"/>
       <c r="AG44" s="31"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="32"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="48"/>
-      <c r="AF45" s="32"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" t="s" s="129">
+        <v>95</v>
+      </c>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="128"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+      <c r="S45" s="128"/>
+      <c r="T45" s="128"/>
+      <c r="U45" s="128"/>
+      <c r="V45" s="128"/>
+      <c r="W45" s="128"/>
+      <c r="X45" s="128"/>
+      <c r="Y45" s="128"/>
+      <c r="Z45" s="128"/>
+      <c r="AA45" s="128"/>
+      <c r="AB45" s="128"/>
+      <c r="AC45" s="128"/>
+      <c r="AD45" s="128"/>
+      <c r="AE45" s="133"/>
+      <c r="AF45" s="131"/>
       <c r="AG45" s="31"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="32"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="75"/>
-      <c r="W46" s="75"/>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="75"/>
-      <c r="AA46" s="75"/>
-      <c r="AB46" s="75"/>
-      <c r="AC46" s="75"/>
-      <c r="AD46" s="75"/>
-      <c r="AE46" s="75"/>
-      <c r="AF46" s="30"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" t="s" s="129">
+        <v>96</v>
+      </c>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="128"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="128"/>
+      <c r="V46" s="128"/>
+      <c r="W46" s="128"/>
+      <c r="X46" s="128"/>
+      <c r="Y46" s="128"/>
+      <c r="Z46" s="128"/>
+      <c r="AA46" s="128"/>
+      <c r="AB46" s="128"/>
+      <c r="AC46" s="128"/>
+      <c r="AD46" s="128"/>
+      <c r="AE46" s="133"/>
+      <c r="AF46" s="131"/>
       <c r="AG46" s="31"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="32"/>
-      <c r="B47" s="31"/>
-      <c r="C47" t="s" s="74">
-        <v>77</v>
-      </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="83"/>
-      <c r="F47" t="s" s="104">
-        <v>96</v>
-      </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="57"/>
-      <c r="S47" t="s" s="74">
-        <v>79</v>
-      </c>
-      <c r="T47" s="76"/>
-      <c r="U47" t="s" s="74">
-        <v>80</v>
-      </c>
-      <c r="V47" s="75"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="75"/>
-      <c r="Z47" s="75"/>
-      <c r="AA47" s="75"/>
-      <c r="AB47" s="75"/>
-      <c r="AC47" s="75"/>
-      <c r="AD47" s="75"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="32"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="128"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="128"/>
+      <c r="S47" s="128"/>
+      <c r="T47" s="128"/>
+      <c r="U47" s="128"/>
+      <c r="V47" s="128"/>
+      <c r="W47" s="128"/>
+      <c r="X47" s="128"/>
+      <c r="Y47" s="128"/>
+      <c r="Z47" s="128"/>
+      <c r="AA47" s="128"/>
+      <c r="AB47" s="128"/>
+      <c r="AC47" s="128"/>
+      <c r="AD47" s="128"/>
+      <c r="AE47" s="133"/>
+      <c r="AF47" s="131"/>
       <c r="AG47" s="31"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="32"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="48"/>
-      <c r="S48" t="s" s="74">
-        <v>81</v>
-      </c>
-      <c r="T48" s="76"/>
-      <c r="U48" t="s" s="74">
-        <v>49</v>
-      </c>
-      <c r="V48" s="75"/>
-      <c r="W48" s="75"/>
-      <c r="X48" s="75"/>
-      <c r="Y48" s="75"/>
-      <c r="Z48" s="75"/>
-      <c r="AA48" s="75"/>
-      <c r="AB48" s="75"/>
-      <c r="AC48" s="75"/>
-      <c r="AD48" s="75"/>
-      <c r="AE48" s="76"/>
-      <c r="AF48" s="32"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="136"/>
+      <c r="P48" s="136"/>
+      <c r="Q48" s="136"/>
+      <c r="R48" s="136"/>
+      <c r="S48" s="136"/>
+      <c r="T48" s="136"/>
+      <c r="U48" s="136"/>
+      <c r="V48" s="136"/>
+      <c r="W48" s="136"/>
+      <c r="X48" s="136"/>
+      <c r="Y48" s="136"/>
+      <c r="Z48" s="136"/>
+      <c r="AA48" s="136"/>
+      <c r="AB48" s="136"/>
+      <c r="AC48" s="136"/>
+      <c r="AD48" s="136"/>
+      <c r="AE48" s="137"/>
+      <c r="AF48" s="138"/>
       <c r="AG48" s="31"/>
     </row>
     <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="57"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="31"/>
-    </row>
-    <row r="50" ht="33" customHeight="1">
+      <c r="A49" s="139"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="142"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="142"/>
+      <c r="N49" s="142"/>
+      <c r="O49" s="142"/>
+      <c r="P49" s="142"/>
+      <c r="Q49" s="142"/>
+      <c r="R49" s="142"/>
+      <c r="S49" s="142"/>
+      <c r="T49" s="142"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="142"/>
+      <c r="W49" s="142"/>
+      <c r="X49" s="142"/>
+      <c r="Y49" s="142"/>
+      <c r="Z49" s="142"/>
+      <c r="AA49" s="142"/>
+      <c r="AB49" s="142"/>
+      <c r="AC49" s="142"/>
+      <c r="AD49" s="142"/>
+      <c r="AE49" s="143"/>
+      <c r="AF49" s="144"/>
+      <c r="AG49" s="145"/>
+    </row>
+    <row r="50" ht="16" customHeight="1">
       <c r="A50" s="32"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" t="s" s="103">
-        <v>97</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="32"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="147"/>
+      <c r="S50" s="147"/>
+      <c r="T50" s="147"/>
+      <c r="U50" s="147"/>
+      <c r="V50" s="147"/>
+      <c r="W50" s="147"/>
+      <c r="X50" s="147"/>
+      <c r="Y50" s="147"/>
+      <c r="Z50" s="147"/>
+      <c r="AA50" s="147"/>
+      <c r="AB50" s="147"/>
+      <c r="AC50" s="147"/>
+      <c r="AD50" s="147"/>
+      <c r="AE50" s="147"/>
+      <c r="AF50" s="30"/>
       <c r="AG50" s="31"/>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="32"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="31"/>
+      <c r="C51" t="s" s="74">
+        <v>74</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="E51" s="83"/>
+      <c r="F51" t="s" s="104">
+        <v>97</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="57"/>
+      <c r="S51" t="s" s="74">
+        <v>76</v>
+      </c>
+      <c r="T51" s="76"/>
+      <c r="U51" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="V51" s="75"/>
+      <c r="W51" s="75"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="75"/>
+      <c r="Z51" s="75"/>
+      <c r="AA51" s="75"/>
+      <c r="AB51" s="75"/>
+      <c r="AC51" s="75"/>
+      <c r="AD51" s="75"/>
+      <c r="AE51" s="76"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="31"/>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="32"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
@@ -8852,27 +9196,31 @@
       <c r="O52" s="33"/>
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" t="s" s="74">
+        <v>78</v>
+      </c>
+      <c r="T52" s="76"/>
+      <c r="U52" t="s" s="74">
+        <v>47</v>
+      </c>
+      <c r="V52" s="75"/>
+      <c r="W52" s="75"/>
+      <c r="X52" s="75"/>
+      <c r="Y52" s="75"/>
+      <c r="Z52" s="75"/>
+      <c r="AA52" s="75"/>
+      <c r="AB52" s="75"/>
+      <c r="AC52" s="75"/>
+      <c r="AD52" s="75"/>
+      <c r="AE52" s="76"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="31"/>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" s="32"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
@@ -8900,15 +9248,17 @@
       <c r="AB53" s="36"/>
       <c r="AC53" s="36"/>
       <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
-      <c r="AF53" s="30"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="32"/>
       <c r="AG53" s="31"/>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" s="32"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" t="s" s="103">
+        <v>98</v>
+      </c>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -8935,15 +9285,17 @@
       <c r="AB54" s="30"/>
       <c r="AC54" s="30"/>
       <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="32"/>
       <c r="AG54" s="31"/>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="32"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" t="s" s="103">
+        <v>99</v>
+      </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -8970,1059 +9322,114 @@
       <c r="AB55" s="30"/>
       <c r="AC55" s="30"/>
       <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="32"/>
       <c r="AG55" s="31"/>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="32"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="32"/>
       <c r="AG56" s="31"/>
     </row>
     <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="31"/>
+      <c r="A57" s="148"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
+      <c r="L57" s="150"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="150"/>
+      <c r="Q57" s="150"/>
+      <c r="R57" s="150"/>
+      <c r="S57" s="150"/>
+      <c r="T57" s="150"/>
+      <c r="U57" s="150"/>
+      <c r="V57" s="150"/>
+      <c r="W57" s="150"/>
+      <c r="X57" s="150"/>
+      <c r="Y57" s="150"/>
+      <c r="Z57" s="150"/>
+      <c r="AA57" s="150"/>
+      <c r="AB57" s="150"/>
+      <c r="AC57" s="150"/>
+      <c r="AD57" s="150"/>
+      <c r="AE57" s="150"/>
+      <c r="AF57" s="149"/>
+      <c r="AG57" s="151"/>
     </row>
     <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="32"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="31"/>
-    </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" s="32"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="30"/>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="30"/>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="30"/>
-      <c r="AE59" s="30"/>
-      <c r="AF59" s="30"/>
-      <c r="AG59" s="31"/>
-    </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="32"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="30"/>
-      <c r="Y60" s="30"/>
-      <c r="Z60" s="30"/>
-      <c r="AA60" s="30"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="30"/>
-      <c r="AE60" s="30"/>
-      <c r="AF60" s="30"/>
-      <c r="AG60" s="31"/>
-    </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="30"/>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
-      <c r="AE61" s="30"/>
-      <c r="AF61" s="30"/>
-      <c r="AG61" s="31"/>
-    </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="30"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
-      <c r="AE62" s="30"/>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="31"/>
-    </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="32"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
-      <c r="AE63" s="30"/>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="31"/>
-    </row>
-    <row r="64" ht="16" customHeight="1">
-      <c r="A64" s="32"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="30"/>
-      <c r="AC64" s="30"/>
-      <c r="AD64" s="30"/>
-      <c r="AE64" s="30"/>
-      <c r="AF64" s="30"/>
-      <c r="AG64" s="31"/>
-    </row>
-    <row r="65" ht="16" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="30"/>
-      <c r="AD65" s="30"/>
-      <c r="AE65" s="30"/>
-      <c r="AF65" s="30"/>
-      <c r="AG65" s="31"/>
-    </row>
-    <row r="66" ht="16" customHeight="1">
-      <c r="A66" s="32"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="30"/>
-      <c r="AC66" s="30"/>
-      <c r="AD66" s="30"/>
-      <c r="AE66" s="30"/>
-      <c r="AF66" s="30"/>
-      <c r="AG66" s="31"/>
-    </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" s="32"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="30"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30"/>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
-      <c r="AG67" s="31"/>
-    </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" s="32"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="30"/>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="30"/>
-      <c r="AA68" s="30"/>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30"/>
-      <c r="AD68" s="30"/>
-      <c r="AE68" s="30"/>
-      <c r="AF68" s="30"/>
-      <c r="AG68" s="31"/>
-    </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" s="32"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="30"/>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-      <c r="AG69" s="31"/>
-    </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
-      <c r="AD70" s="30"/>
-      <c r="AE70" s="30"/>
-      <c r="AF70" s="30"/>
-      <c r="AG70" s="31"/>
-    </row>
-    <row r="71" ht="16" customHeight="1">
-      <c r="A71" s="32"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="30"/>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="30"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
-      <c r="AD71" s="30"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="30"/>
-      <c r="AG71" s="31"/>
-    </row>
-    <row r="72" ht="16" customHeight="1">
-      <c r="A72" s="32"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-      <c r="V72" s="30"/>
-      <c r="W72" s="30"/>
-      <c r="X72" s="30"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-      <c r="AC72" s="30"/>
-      <c r="AD72" s="30"/>
-      <c r="AE72" s="30"/>
-      <c r="AF72" s="30"/>
-      <c r="AG72" s="31"/>
-    </row>
-    <row r="73" ht="16" customHeight="1">
-      <c r="A73" s="32"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="30"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="30"/>
-      <c r="U73" s="30"/>
-      <c r="V73" s="30"/>
-      <c r="W73" s="30"/>
-      <c r="X73" s="30"/>
-      <c r="Y73" s="30"/>
-      <c r="Z73" s="30"/>
-      <c r="AA73" s="30"/>
-      <c r="AB73" s="30"/>
-      <c r="AC73" s="30"/>
-      <c r="AD73" s="30"/>
-      <c r="AE73" s="30"/>
-      <c r="AF73" s="30"/>
-      <c r="AG73" s="31"/>
-    </row>
-    <row r="74" ht="16" customHeight="1">
-      <c r="A74" s="32"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="30"/>
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="30"/>
-      <c r="Y74" s="30"/>
-      <c r="Z74" s="30"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-      <c r="AC74" s="30"/>
-      <c r="AD74" s="30"/>
-      <c r="AE74" s="30"/>
-      <c r="AF74" s="30"/>
-      <c r="AG74" s="31"/>
-    </row>
-    <row r="75" ht="16" customHeight="1">
-      <c r="A75" s="32"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
-      <c r="T75" s="30"/>
-      <c r="U75" s="30"/>
-      <c r="V75" s="30"/>
-      <c r="W75" s="30"/>
-      <c r="X75" s="30"/>
-      <c r="Y75" s="30"/>
-      <c r="Z75" s="30"/>
-      <c r="AA75" s="30"/>
-      <c r="AB75" s="30"/>
-      <c r="AC75" s="30"/>
-      <c r="AD75" s="30"/>
-      <c r="AE75" s="30"/>
-      <c r="AF75" s="30"/>
-      <c r="AG75" s="31"/>
-    </row>
-    <row r="76" ht="16" customHeight="1">
-      <c r="A76" s="32"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-      <c r="V76" s="30"/>
-      <c r="W76" s="30"/>
-      <c r="X76" s="30"/>
-      <c r="Y76" s="30"/>
-      <c r="Z76" s="30"/>
-      <c r="AA76" s="30"/>
-      <c r="AB76" s="30"/>
-      <c r="AC76" s="30"/>
-      <c r="AD76" s="30"/>
-      <c r="AE76" s="30"/>
-      <c r="AF76" s="30"/>
-      <c r="AG76" s="31"/>
-    </row>
-    <row r="77" ht="16" customHeight="1">
-      <c r="A77" s="32"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="30"/>
-      <c r="V77" s="30"/>
-      <c r="W77" s="30"/>
-      <c r="X77" s="30"/>
-      <c r="Y77" s="30"/>
-      <c r="Z77" s="30"/>
-      <c r="AA77" s="30"/>
-      <c r="AB77" s="30"/>
-      <c r="AC77" s="30"/>
-      <c r="AD77" s="30"/>
-      <c r="AE77" s="30"/>
-      <c r="AF77" s="30"/>
-      <c r="AG77" s="31"/>
-    </row>
-    <row r="78" ht="16" customHeight="1">
-      <c r="A78" s="32"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="30"/>
-      <c r="U78" s="30"/>
-      <c r="V78" s="30"/>
-      <c r="W78" s="30"/>
-      <c r="X78" s="30"/>
-      <c r="Y78" s="30"/>
-      <c r="Z78" s="30"/>
-      <c r="AA78" s="30"/>
-      <c r="AB78" s="30"/>
-      <c r="AC78" s="30"/>
-      <c r="AD78" s="30"/>
-      <c r="AE78" s="30"/>
-      <c r="AF78" s="30"/>
-      <c r="AG78" s="31"/>
-    </row>
-    <row r="79" ht="16" customHeight="1">
-      <c r="A79" s="32"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="30"/>
-      <c r="V79" s="30"/>
-      <c r="W79" s="30"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="30"/>
-      <c r="Z79" s="30"/>
-      <c r="AA79" s="30"/>
-      <c r="AB79" s="30"/>
-      <c r="AC79" s="30"/>
-      <c r="AD79" s="30"/>
-      <c r="AE79" s="30"/>
-      <c r="AF79" s="30"/>
-      <c r="AG79" s="31"/>
-    </row>
-    <row r="80" ht="16" customHeight="1">
-      <c r="A80" s="32"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="30"/>
-      <c r="Z80" s="30"/>
-      <c r="AA80" s="30"/>
-      <c r="AB80" s="30"/>
-      <c r="AC80" s="30"/>
-      <c r="AD80" s="30"/>
-      <c r="AE80" s="30"/>
-      <c r="AF80" s="30"/>
-      <c r="AG80" s="31"/>
-    </row>
-    <row r="81" ht="16" customHeight="1">
-      <c r="A81" s="32"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30"/>
-      <c r="V81" s="30"/>
-      <c r="W81" s="30"/>
-      <c r="X81" s="30"/>
-      <c r="Y81" s="30"/>
-      <c r="Z81" s="30"/>
-      <c r="AA81" s="30"/>
-      <c r="AB81" s="30"/>
-      <c r="AC81" s="30"/>
-      <c r="AD81" s="30"/>
-      <c r="AE81" s="30"/>
-      <c r="AF81" s="30"/>
-      <c r="AG81" s="31"/>
-    </row>
-    <row r="82" ht="16" customHeight="1">
-      <c r="A82" s="32"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="30"/>
-      <c r="Z82" s="30"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="30"/>
-      <c r="AC82" s="30"/>
-      <c r="AD82" s="30"/>
-      <c r="AE82" s="30"/>
-      <c r="AF82" s="30"/>
-      <c r="AG82" s="31"/>
-    </row>
-    <row r="83" ht="16" customHeight="1">
-      <c r="A83" s="32"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="30"/>
-      <c r="X83" s="30"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="30"/>
-      <c r="AC83" s="30"/>
-      <c r="AD83" s="30"/>
-      <c r="AE83" s="30"/>
-      <c r="AF83" s="30"/>
-      <c r="AG83" s="31"/>
-    </row>
-    <row r="84" ht="16" customHeight="1">
-      <c r="A84" s="32"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="30"/>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="30"/>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="31"/>
-    </row>
-    <row r="85" ht="16" customHeight="1">
-      <c r="A85" s="47"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
-      <c r="AB85" s="33"/>
-      <c r="AC85" s="33"/>
-      <c r="AD85" s="33"/>
-      <c r="AE85" s="33"/>
-      <c r="AF85" s="33"/>
-      <c r="AG85" s="48"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="147"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="147"/>
+      <c r="Q58" s="147"/>
+      <c r="R58" s="147"/>
+      <c r="S58" s="147"/>
+      <c r="T58" s="147"/>
+      <c r="U58" s="147"/>
+      <c r="V58" s="147"/>
+      <c r="W58" s="147"/>
+      <c r="X58" s="147"/>
+      <c r="Y58" s="147"/>
+      <c r="Z58" s="147"/>
+      <c r="AA58" s="147"/>
+      <c r="AB58" s="147"/>
+      <c r="AC58" s="147"/>
+      <c r="AD58" s="147"/>
+      <c r="AE58" s="147"/>
+      <c r="AF58" s="147"/>
+      <c r="AG58" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10055,23 +9462,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="3.67188" style="107" customWidth="1"/>
-    <col min="24" max="27" width="2.85156" style="107" customWidth="1"/>
-    <col min="28" max="29" width="3.67188" style="107" customWidth="1"/>
-    <col min="30" max="33" width="2.85156" style="107" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="107" customWidth="1"/>
+    <col min="1" max="23" width="3.67188" style="154" customWidth="1"/>
+    <col min="24" max="27" width="2.85156" style="154" customWidth="1"/>
+    <col min="28" max="29" width="3.67188" style="154" customWidth="1"/>
+    <col min="30" max="33" width="2.85156" style="154" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="50">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" t="s" s="52">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
@@ -10089,17 +9496,17 @@
       <c r="T1" s="53"/>
       <c r="U1" s="53"/>
       <c r="V1" t="s" s="50">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W1" s="51"/>
       <c r="X1" t="s" s="50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="51"/>
       <c r="Z1" s="51"/>
       <c r="AA1" s="51"/>
       <c r="AB1" t="s" s="50">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
@@ -10111,14 +9518,14 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
       <c r="F2" t="s" s="52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
@@ -10136,7 +9543,7 @@
       <c r="T2" s="53"/>
       <c r="U2" s="53"/>
       <c r="V2" t="s" s="50">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W2" s="51"/>
       <c r="X2" s="55">
@@ -10146,7 +9553,7 @@
       <c r="Z2" s="51"/>
       <c r="AA2" s="51"/>
       <c r="AB2" t="s" s="50">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="51"/>
       <c r="AD2" s="55">
@@ -10194,7 +9601,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" t="s" s="103">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -10232,13 +9639,13 @@
       <c r="A5" s="32"/>
       <c r="B5" s="30"/>
       <c r="C5" t="s" s="103">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" t="s" s="103">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -10271,13 +9678,13 @@
       <c r="A6" s="32"/>
       <c r="B6" s="30"/>
       <c r="C6" t="s" s="103">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" t="s" s="103">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -358,25 +358,28 @@
     <t>getoutFromKK04001</t>
   </si>
   <si>
-    <t>1.「取消ボタン」または「月別一覧へ戻る」が押下された場合に次の条件で遷移先をリダイレクトする。</t>
-  </si>
-  <si>
-    <t>1-1. 社員ID(KK03001で取得したパラメータ)が存在しない場合</t>
+    <t>1. 「戻る」が押下された場合に次の条件で遷移先をリダイレクトする。</t>
+  </si>
+  <si>
+    <t>1-1. 社員情報(管理者権限)が存在しない場合</t>
   </si>
   <si>
     <t>月別一覧(KK02001)を呼び出すメソッドへリダイレクトする。</t>
   </si>
   <si>
-    <t>1-2. 社員ID(KK03001で取得したパラメータ)が存在する場合、以下の条件でリダイレクト先を指定する。</t>
-  </si>
-  <si>
-    <t>1-2-1. 社員IDとログインしているユーザーIDが等しいとき</t>
-  </si>
-  <si>
-    <t>1-2-2. 社員IDとログインしているユーザーIDが等しくないとき</t>
-  </si>
-  <si>
-    <t>社員一覧(KK03001)を呼び出すメソッドへリダイレクトする。</t>
+    <t>1-2. 社員情報(管理者権限)が存在する場合</t>
+  </si>
+  <si>
+    <t>1-2-1.社員一覧(KK03001)を呼び出すメソッドへリダイレクトする。</t>
+  </si>
+  <si>
+    <t>editWorkReport</t>
+  </si>
+  <si>
+    <t>1. 該当社員の勤務報告書の内容を取消する。</t>
+  </si>
+  <si>
+    <t>　社員が勤務報告書を編集できるように(work_report_monthlyテーブルのauth_flg=“0”)にして、自画面を再表示する。</t>
   </si>
   <si>
     <t>determineWorkReport</t>
@@ -516,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -992,9 +995,62 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom>
@@ -1021,148 +1077,6 @@
       <top>
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1170,17 +1084,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right/>
       <top>
         <color indexed="8"/>
@@ -1209,7 +1112,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1531,146 +1434,68 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -8480,124 +8305,124 @@
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="32"/>
       <c r="B33" s="31"/>
-      <c r="C33" t="s" s="107">
+      <c r="C33" t="s" s="74">
         <v>74</v>
       </c>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" t="s" s="110">
+      <c r="D33" s="76"/>
+      <c r="E33" s="83"/>
+      <c r="F33" t="s" s="104">
         <v>89</v>
       </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="112"/>
-      <c r="S33" t="s" s="107">
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="57"/>
+      <c r="S33" t="s" s="74">
         <v>76</v>
       </c>
-      <c r="T33" s="108"/>
-      <c r="U33" t="s" s="107">
+      <c r="T33" s="76"/>
+      <c r="U33" t="s" s="74">
         <v>77</v>
       </c>
-      <c r="V33" s="113"/>
-      <c r="W33" s="113"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
-      <c r="AE33" s="108"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="76"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="31"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="116"/>
-      <c r="S34" t="s" s="107">
+      <c r="C34" s="105"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="48"/>
+      <c r="S34" t="s" s="74">
         <v>78</v>
       </c>
-      <c r="T34" s="108"/>
-      <c r="U34" t="s" s="107">
+      <c r="T34" s="76"/>
+      <c r="U34" t="s" s="74">
         <v>47</v>
       </c>
-      <c r="V34" s="113"/>
-      <c r="W34" s="113"/>
-      <c r="X34" s="113"/>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="113"/>
-      <c r="AE34" s="108"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="76"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="31"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="112"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="57"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="31"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="32"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="118"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -8623,515 +8448,525 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
-      <c r="AC36" s="119"/>
-      <c r="AD36" s="119"/>
-      <c r="AE36" s="120"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="31"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="31"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="121"/>
-      <c r="D37" t="s" s="122">
+      <c r="C37" s="32"/>
+      <c r="D37" t="s" s="103">
         <v>90</v>
       </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="119"/>
-      <c r="T37" s="119"/>
-      <c r="U37" s="119"/>
-      <c r="V37" s="119"/>
-      <c r="W37" s="119"/>
-      <c r="X37" s="119"/>
-      <c r="Y37" s="119"/>
-      <c r="Z37" s="119"/>
-      <c r="AA37" s="119"/>
-      <c r="AB37" s="119"/>
-      <c r="AC37" s="122"/>
-      <c r="AD37" s="119"/>
-      <c r="AE37" s="123"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="103"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="31"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="31"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="119"/>
-      <c r="E38" t="s" s="122">
+      <c r="C38" s="32"/>
+      <c r="D38" s="30"/>
+      <c r="E38" t="s" s="103">
         <v>91</v>
       </c>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="119"/>
-      <c r="S38" s="119"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="119"/>
-      <c r="V38" s="119"/>
-      <c r="W38" s="119"/>
-      <c r="X38" s="119"/>
-      <c r="Y38" s="119"/>
-      <c r="Z38" s="119"/>
-      <c r="AA38" s="119"/>
-      <c r="AB38" s="119"/>
-      <c r="AC38" s="119"/>
-      <c r="AD38" s="119"/>
-      <c r="AE38" s="125"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="31"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="31"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" t="s" s="129">
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" t="s" s="109">
         <v>92</v>
       </c>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
-      <c r="W39" s="128"/>
-      <c r="X39" s="128"/>
-      <c r="Y39" s="128"/>
-      <c r="Z39" s="128"/>
-      <c r="AA39" s="128"/>
-      <c r="AB39" s="128"/>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="130"/>
-      <c r="AF39" s="131"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="108"/>
       <c r="AG39" s="31"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="32"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="128"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="128"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="128"/>
-      <c r="U40" s="128"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
-      <c r="Y40" s="128"/>
-      <c r="Z40" s="128"/>
-      <c r="AA40" s="128"/>
-      <c r="AB40" s="128"/>
-      <c r="AC40" s="128"/>
-      <c r="AD40" s="128"/>
-      <c r="AE40" s="133"/>
-      <c r="AF40" s="131"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="108"/>
       <c r="AG40" s="31"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="32"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="128"/>
-      <c r="E41" t="s" s="122">
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="11"/>
+      <c r="E41" t="s" s="103">
         <v>93</v>
       </c>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128"/>
-      <c r="X41" s="128"/>
-      <c r="Y41" s="128"/>
-      <c r="Z41" s="128"/>
-      <c r="AA41" s="128"/>
-      <c r="AB41" s="128"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="128"/>
-      <c r="AE41" s="133"/>
-      <c r="AF41" s="131"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="108"/>
       <c r="AG41" s="31"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="32"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" t="s" s="129">
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" t="s" s="109">
         <v>94</v>
       </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="128"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="128"/>
-      <c r="W42" s="128"/>
-      <c r="X42" s="128"/>
-      <c r="Y42" s="128"/>
-      <c r="Z42" s="128"/>
-      <c r="AA42" s="128"/>
-      <c r="AB42" s="128"/>
-      <c r="AC42" s="128"/>
-      <c r="AD42" s="128"/>
-      <c r="AE42" s="133"/>
-      <c r="AF42" s="131"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="108"/>
       <c r="AG42" s="31"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="32"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" t="s" s="129">
-        <v>92</v>
-      </c>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="128"/>
-      <c r="R43" s="128"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128"/>
-      <c r="V43" s="128"/>
-      <c r="W43" s="128"/>
-      <c r="X43" s="128"/>
-      <c r="Y43" s="128"/>
-      <c r="Z43" s="128"/>
-      <c r="AA43" s="128"/>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="133"/>
-      <c r="AF43" s="131"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="113"/>
+      <c r="AF43" s="108"/>
       <c r="AG43" s="31"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="32"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="128"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="128"/>
-      <c r="R44" s="128"/>
-      <c r="S44" s="128"/>
-      <c r="T44" s="128"/>
-      <c r="U44" s="128"/>
-      <c r="V44" s="128"/>
-      <c r="W44" s="128"/>
-      <c r="X44" s="128"/>
-      <c r="Y44" s="128"/>
-      <c r="Z44" s="128"/>
-      <c r="AA44" s="128"/>
-      <c r="AB44" s="128"/>
-      <c r="AC44" s="128"/>
-      <c r="AD44" s="128"/>
-      <c r="AE44" s="133"/>
-      <c r="AF44" s="131"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="116"/>
+      <c r="W44" s="116"/>
+      <c r="X44" s="116"/>
+      <c r="Y44" s="116"/>
+      <c r="Z44" s="116"/>
+      <c r="AA44" s="116"/>
+      <c r="AB44" s="116"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="116"/>
+      <c r="AE44" s="117"/>
+      <c r="AF44" s="118"/>
       <c r="AG44" s="31"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="32"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" t="s" s="129">
+      <c r="B45" s="107"/>
+      <c r="C45" t="s" s="74">
+        <v>74</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="83"/>
+      <c r="F45" t="s" s="104">
         <v>95</v>
       </c>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="128"/>
-      <c r="O45" s="128"/>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="128"/>
-      <c r="R45" s="128"/>
-      <c r="S45" s="128"/>
-      <c r="T45" s="128"/>
-      <c r="U45" s="128"/>
-      <c r="V45" s="128"/>
-      <c r="W45" s="128"/>
-      <c r="X45" s="128"/>
-      <c r="Y45" s="128"/>
-      <c r="Z45" s="128"/>
-      <c r="AA45" s="128"/>
-      <c r="AB45" s="128"/>
-      <c r="AC45" s="128"/>
-      <c r="AD45" s="128"/>
-      <c r="AE45" s="133"/>
-      <c r="AF45" s="131"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="57"/>
+      <c r="S45" t="s" s="74">
+        <v>76</v>
+      </c>
+      <c r="T45" s="76"/>
+      <c r="U45" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75"/>
+      <c r="AD45" s="75"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="108"/>
       <c r="AG45" s="31"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="32"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" t="s" s="129">
-        <v>96</v>
-      </c>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="128"/>
-      <c r="O46" s="128"/>
-      <c r="P46" s="128"/>
-      <c r="Q46" s="128"/>
-      <c r="R46" s="128"/>
-      <c r="S46" s="128"/>
-      <c r="T46" s="128"/>
-      <c r="U46" s="128"/>
-      <c r="V46" s="128"/>
-      <c r="W46" s="128"/>
-      <c r="X46" s="128"/>
-      <c r="Y46" s="128"/>
-      <c r="Z46" s="128"/>
-      <c r="AA46" s="128"/>
-      <c r="AB46" s="128"/>
-      <c r="AC46" s="128"/>
-      <c r="AD46" s="128"/>
-      <c r="AE46" s="133"/>
-      <c r="AF46" s="131"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="48"/>
+      <c r="S46" t="s" s="74">
+        <v>78</v>
+      </c>
+      <c r="T46" s="76"/>
+      <c r="U46" t="s" s="74">
+        <v>47</v>
+      </c>
+      <c r="V46" s="75"/>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="Z46" s="75"/>
+      <c r="AA46" s="75"/>
+      <c r="AB46" s="75"/>
+      <c r="AC46" s="75"/>
+      <c r="AD46" s="75"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="108"/>
       <c r="AG46" s="31"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="32"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="128"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="128"/>
-      <c r="O47" s="128"/>
-      <c r="P47" s="128"/>
-      <c r="Q47" s="128"/>
-      <c r="R47" s="128"/>
-      <c r="S47" s="128"/>
-      <c r="T47" s="128"/>
-      <c r="U47" s="128"/>
-      <c r="V47" s="128"/>
-      <c r="W47" s="128"/>
-      <c r="X47" s="128"/>
-      <c r="Y47" s="128"/>
-      <c r="Z47" s="128"/>
-      <c r="AA47" s="128"/>
-      <c r="AB47" s="128"/>
-      <c r="AC47" s="128"/>
-      <c r="AD47" s="128"/>
-      <c r="AE47" s="133"/>
-      <c r="AF47" s="131"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="120"/>
+      <c r="U47" s="120"/>
+      <c r="V47" s="120"/>
+      <c r="W47" s="120"/>
+      <c r="X47" s="120"/>
+      <c r="Y47" s="120"/>
+      <c r="Z47" s="120"/>
+      <c r="AA47" s="120"/>
+      <c r="AB47" s="120"/>
+      <c r="AC47" s="120"/>
+      <c r="AD47" s="120"/>
+      <c r="AE47" s="121"/>
+      <c r="AF47" s="108"/>
       <c r="AG47" s="31"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="32"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="136"/>
-      <c r="N48" s="136"/>
-      <c r="O48" s="136"/>
-      <c r="P48" s="136"/>
-      <c r="Q48" s="136"/>
-      <c r="R48" s="136"/>
-      <c r="S48" s="136"/>
-      <c r="T48" s="136"/>
-      <c r="U48" s="136"/>
-      <c r="V48" s="136"/>
-      <c r="W48" s="136"/>
-      <c r="X48" s="136"/>
-      <c r="Y48" s="136"/>
-      <c r="Z48" s="136"/>
-      <c r="AA48" s="136"/>
-      <c r="AB48" s="136"/>
-      <c r="AC48" s="136"/>
-      <c r="AD48" s="136"/>
-      <c r="AE48" s="137"/>
-      <c r="AF48" s="138"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="122"/>
+      <c r="D48" t="s" s="103">
+        <v>96</v>
+      </c>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="123"/>
+      <c r="Q48" s="123"/>
+      <c r="R48" s="123"/>
+      <c r="S48" s="123"/>
+      <c r="T48" s="123"/>
+      <c r="U48" s="123"/>
+      <c r="V48" s="123"/>
+      <c r="W48" s="123"/>
+      <c r="X48" s="123"/>
+      <c r="Y48" s="123"/>
+      <c r="Z48" s="123"/>
+      <c r="AA48" s="123"/>
+      <c r="AB48" s="123"/>
+      <c r="AC48" s="123"/>
+      <c r="AD48" s="123"/>
+      <c r="AE48" s="124"/>
+      <c r="AF48" s="108"/>
       <c r="AG48" s="31"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="139"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="142"/>
-      <c r="L49" s="142"/>
-      <c r="M49" s="142"/>
-      <c r="N49" s="142"/>
-      <c r="O49" s="142"/>
-      <c r="P49" s="142"/>
-      <c r="Q49" s="142"/>
-      <c r="R49" s="142"/>
-      <c r="S49" s="142"/>
-      <c r="T49" s="142"/>
-      <c r="U49" s="142"/>
-      <c r="V49" s="142"/>
-      <c r="W49" s="142"/>
-      <c r="X49" s="142"/>
-      <c r="Y49" s="142"/>
-      <c r="Z49" s="142"/>
-      <c r="AA49" s="142"/>
-      <c r="AB49" s="142"/>
-      <c r="AC49" s="142"/>
-      <c r="AD49" s="142"/>
-      <c r="AE49" s="143"/>
-      <c r="AF49" s="144"/>
-      <c r="AG49" s="145"/>
+    <row r="49" ht="26.15" customHeight="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="125"/>
+      <c r="D49" t="s" s="106">
+        <v>97</v>
+      </c>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="126"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="126"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="126"/>
+      <c r="S49" s="126"/>
+      <c r="T49" s="126"/>
+      <c r="U49" s="126"/>
+      <c r="V49" s="126"/>
+      <c r="W49" s="126"/>
+      <c r="X49" s="126"/>
+      <c r="Y49" s="126"/>
+      <c r="Z49" s="126"/>
+      <c r="AA49" s="126"/>
+      <c r="AB49" s="126"/>
+      <c r="AC49" s="126"/>
+      <c r="AD49" s="126"/>
+      <c r="AE49" s="127"/>
+      <c r="AF49" s="108"/>
+      <c r="AG49" s="31"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="32"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="147"/>
-      <c r="M50" s="147"/>
-      <c r="N50" s="147"/>
-      <c r="O50" s="147"/>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="147"/>
-      <c r="U50" s="147"/>
-      <c r="V50" s="147"/>
-      <c r="W50" s="147"/>
-      <c r="X50" s="147"/>
-      <c r="Y50" s="147"/>
-      <c r="Z50" s="147"/>
-      <c r="AA50" s="147"/>
-      <c r="AB50" s="147"/>
-      <c r="AC50" s="147"/>
-      <c r="AD50" s="147"/>
-      <c r="AE50" s="147"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="75"/>
+      <c r="T50" s="75"/>
+      <c r="U50" s="75"/>
+      <c r="V50" s="75"/>
+      <c r="W50" s="75"/>
+      <c r="X50" s="75"/>
+      <c r="Y50" s="75"/>
+      <c r="Z50" s="75"/>
+      <c r="AA50" s="75"/>
+      <c r="AB50" s="75"/>
+      <c r="AC50" s="75"/>
+      <c r="AD50" s="75"/>
+      <c r="AE50" s="75"/>
       <c r="AF50" s="30"/>
       <c r="AG50" s="31"/>
     </row>
@@ -9144,7 +8979,7 @@
       <c r="D51" s="76"/>
       <c r="E51" s="83"/>
       <c r="F51" t="s" s="104">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
@@ -9257,7 +9092,7 @@
       <c r="B54" s="31"/>
       <c r="C54" s="32"/>
       <c r="D54" t="s" s="103">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
@@ -9294,7 +9129,7 @@
       <c r="B55" s="31"/>
       <c r="C55" s="32"/>
       <c r="D55" t="s" s="103">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
@@ -9362,74 +9197,74 @@
       <c r="AG56" s="31"/>
     </row>
     <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="148"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="150"/>
-      <c r="O57" s="150"/>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="150"/>
-      <c r="U57" s="150"/>
-      <c r="V57" s="150"/>
-      <c r="W57" s="150"/>
-      <c r="X57" s="150"/>
-      <c r="Y57" s="150"/>
-      <c r="Z57" s="150"/>
-      <c r="AA57" s="150"/>
-      <c r="AB57" s="150"/>
-      <c r="AC57" s="150"/>
-      <c r="AD57" s="150"/>
-      <c r="AE57" s="150"/>
-      <c r="AF57" s="149"/>
-      <c r="AG57" s="151"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="31"/>
     </row>
     <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="152"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="147"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="147"/>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="147"/>
-      <c r="S58" s="147"/>
-      <c r="T58" s="147"/>
-      <c r="U58" s="147"/>
-      <c r="V58" s="147"/>
-      <c r="W58" s="147"/>
-      <c r="X58" s="147"/>
-      <c r="Y58" s="147"/>
-      <c r="Z58" s="147"/>
-      <c r="AA58" s="147"/>
-      <c r="AB58" s="147"/>
-      <c r="AC58" s="147"/>
-      <c r="AD58" s="147"/>
-      <c r="AE58" s="147"/>
-      <c r="AF58" s="147"/>
-      <c r="AG58" s="153"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9462,11 +9297,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="3.67188" style="154" customWidth="1"/>
-    <col min="24" max="27" width="2.85156" style="154" customWidth="1"/>
-    <col min="28" max="29" width="3.67188" style="154" customWidth="1"/>
-    <col min="30" max="33" width="2.85156" style="154" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="154" customWidth="1"/>
+    <col min="1" max="23" width="3.67188" style="128" customWidth="1"/>
+    <col min="24" max="27" width="2.85156" style="128" customWidth="1"/>
+    <col min="28" max="29" width="3.67188" style="128" customWidth="1"/>
+    <col min="30" max="33" width="2.85156" style="128" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="128" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -9601,7 +9436,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" t="s" s="103">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -9639,13 +9474,13 @@
       <c r="A5" s="32"/>
       <c r="B5" s="30"/>
       <c r="C5" t="s" s="103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" t="s" s="103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -9678,13 +9513,13 @@
       <c r="A6" s="32"/>
       <c r="B6" s="30"/>
       <c r="C6" t="s" s="103">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" t="s" s="103">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -211,6 +211,9 @@
     <t>論理名</t>
   </si>
   <si>
+    <t>取得元テーブル</t>
+  </si>
+  <si>
     <t>項目の型</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
     <t>出社時間</t>
   </si>
   <si>
+    <t>work_report_daily</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
   </si>
   <si>
     <t>稼働時間合計</t>
+  </si>
+  <si>
+    <t>work_report_mothly</t>
   </si>
   <si>
     <t>pj_mei</t>
@@ -519,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -999,7 +1008,9 @@
       <right>
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1007,13 +1018,26 @@
       <left>
         <color indexed="8"/>
       </left>
-      <right/>
+      <right>
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
         <color indexed="8"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1021,9 +1045,7 @@
       <right>
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1033,74 +1055,54 @@
       <left>
         <color indexed="8"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right>
         <color indexed="8"/>
       </right>
       <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top>
+      <left>
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="thin">
         <color indexed="8"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1112,7 +1114,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1398,26 +1400,77 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1455,21 +1508,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1477,24 +1515,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -3460,7 +3480,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="46">
-        <v>44113</v>
+        <v>44141</v>
       </c>
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
@@ -3880,7 +3900,7 @@
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
-        <v>44113</v>
+        <v>44141</v>
       </c>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
@@ -4946,7 +4966,7 @@
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
-        <v>44113</v>
+        <v>44141</v>
       </c>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
@@ -5864,7 +5884,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5873,8 +5893,1659 @@
     <col min="1" max="23" width="3.67188" style="94" customWidth="1"/>
     <col min="24" max="27" width="3" style="94" customWidth="1"/>
     <col min="28" max="29" width="3.67188" style="94" customWidth="1"/>
-    <col min="30" max="33" width="3" style="94" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="94" customWidth="1"/>
+    <col min="30" max="46" width="3" style="94" customWidth="1"/>
+    <col min="47" max="16384" width="3.67188" style="94" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="50">
+        <v>19</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" t="s" s="52">
+        <v>28</v>
+      </c>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" t="s" s="50">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" t="s" s="50">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" t="s" s="50">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="54">
+        <v>44141</v>
+      </c>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="50">
+        <v>21</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" t="s" s="52">
+        <v>30</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" t="s" s="50">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="55">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" t="s" s="50">
+        <v>32</v>
+      </c>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="55">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="101"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="104"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="45"/>
+      <c r="B5" t="s" s="105">
+        <v>38</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" t="s" s="105">
+        <v>39</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" t="s" s="105">
+        <v>40</v>
+      </c>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" t="s" s="107">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" t="s" s="105">
+        <v>42</v>
+      </c>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" t="s" s="105">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" t="s" s="105">
+        <v>44</v>
+      </c>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" t="s" s="105">
+        <v>16</v>
+      </c>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="95"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="45"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="110">
+        <v>1</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" t="s" s="111">
+        <v>45</v>
+      </c>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" t="s" s="111">
+        <v>46</v>
+      </c>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" t="s" s="112">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="98"/>
+      <c r="U6" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="45"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="45"/>
+      <c r="B7" s="110">
+        <v>2</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" t="s" s="111">
+        <v>51</v>
+      </c>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" t="s" s="111">
+        <v>52</v>
+      </c>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" t="s" s="112">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="98"/>
+      <c r="U7" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="95"/>
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="45"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="110">
+        <v>3</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" t="s" s="111">
+        <v>53</v>
+      </c>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" t="s" s="111">
+        <v>54</v>
+      </c>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" t="s" s="112">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="98"/>
+      <c r="U8" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="95"/>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM8" s="95"/>
+      <c r="AN8" s="95"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="95"/>
+      <c r="AS8" s="95"/>
+      <c r="AT8" s="45"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="45"/>
+      <c r="B9" s="110">
+        <v>4</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" t="s" s="111">
+        <v>55</v>
+      </c>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" t="s" s="111">
+        <v>56</v>
+      </c>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" t="s" s="112">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="98"/>
+      <c r="U9" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="114"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="95"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="95"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="95"/>
+      <c r="AQ9" s="95"/>
+      <c r="AR9" s="95"/>
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="45"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="110">
+        <v>5</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" t="s" s="111">
+        <v>57</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" t="s" s="111">
+        <v>58</v>
+      </c>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" t="s" s="112">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="98"/>
+      <c r="U10" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="95"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="45"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="110">
+        <v>6</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" t="s" s="111">
+        <v>59</v>
+      </c>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" t="s" s="111">
+        <v>16</v>
+      </c>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" t="s" s="112">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="98"/>
+      <c r="U11" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="45"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="110">
+        <v>7</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" t="s" s="111">
+        <v>60</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" t="s" s="111">
+        <v>61</v>
+      </c>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" t="s" s="112">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="98"/>
+      <c r="U12" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="45"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="110">
+        <v>8</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" t="s" s="111">
+        <v>63</v>
+      </c>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" t="s" s="111">
+        <v>64</v>
+      </c>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" t="s" s="112">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="98"/>
+      <c r="U13" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="45"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="110">
+        <v>9</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" t="s" s="111">
+        <v>65</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" t="s" s="111">
+        <v>66</v>
+      </c>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" t="s" s="112">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="98"/>
+      <c r="U14" t="s" s="113">
+        <v>48</v>
+      </c>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" t="s" s="113">
+        <v>49</v>
+      </c>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="45"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="110">
+        <v>10</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" t="s" s="111">
+        <v>67</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" t="s" s="111">
+        <v>68</v>
+      </c>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" t="s" s="115">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="98"/>
+      <c r="U15" t="s" s="113">
+        <v>69</v>
+      </c>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="45"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="110">
+        <v>11</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" t="s" s="111">
+        <v>70</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" t="s" s="111">
+        <v>71</v>
+      </c>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" t="s" s="115">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="98"/>
+      <c r="U16" t="s" s="113">
+        <v>69</v>
+      </c>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="95"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="45"/>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="45"/>
+      <c r="B17" s="110">
+        <v>12</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" t="s" s="111">
+        <v>72</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" t="s" s="111">
+        <v>73</v>
+      </c>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" t="s" s="115">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="98"/>
+      <c r="U17" t="s" s="113">
+        <v>69</v>
+      </c>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="45"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="45"/>
+      <c r="B18" s="110">
+        <v>13</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" t="s" s="111">
+        <v>74</v>
+      </c>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" t="s" s="111">
+        <v>75</v>
+      </c>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" t="s" s="115">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="98"/>
+      <c r="U18" t="s" s="113">
+        <v>69</v>
+      </c>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" t="s" s="113">
+        <v>50</v>
+      </c>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="45"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="100"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="100"/>
+      <c r="AQ19" s="100"/>
+      <c r="AR19" s="100"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="104"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="117"/>
+      <c r="AR20" s="117"/>
+      <c r="AS20" s="117"/>
+      <c r="AT20" s="104"/>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="117"/>
+      <c r="AO21" s="117"/>
+      <c r="AP21" s="117"/>
+      <c r="AQ21" s="117"/>
+      <c r="AR21" s="117"/>
+      <c r="AS21" s="117"/>
+      <c r="AT21" s="104"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="117"/>
+      <c r="AO22" s="117"/>
+      <c r="AP22" s="117"/>
+      <c r="AQ22" s="117"/>
+      <c r="AR22" s="117"/>
+      <c r="AS22" s="117"/>
+      <c r="AT22" s="104"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="117"/>
+      <c r="AO23" s="117"/>
+      <c r="AP23" s="117"/>
+      <c r="AQ23" s="117"/>
+      <c r="AR23" s="117"/>
+      <c r="AS23" s="117"/>
+      <c r="AT23" s="104"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="117"/>
+      <c r="AS24" s="117"/>
+      <c r="AT24" s="104"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="117"/>
+      <c r="AO25" s="117"/>
+      <c r="AP25" s="117"/>
+      <c r="AQ25" s="117"/>
+      <c r="AR25" s="117"/>
+      <c r="AS25" s="117"/>
+      <c r="AT25" s="104"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="102"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="103"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="103"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="103"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="124">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="F1:AH1"/>
+    <mergeCell ref="F2:AH2"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL5:AS5"/>
+    <mergeCell ref="AL6:AS6"/>
+    <mergeCell ref="AL7:AS7"/>
+    <mergeCell ref="AL8:AS8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC16:AK16"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC17:AK17"/>
+    <mergeCell ref="AC14:AK14"/>
+    <mergeCell ref="AC11:AK11"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="AC15:AK15"/>
+    <mergeCell ref="AC12:AK12"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AL18:AS18"/>
+    <mergeCell ref="AL15:AS15"/>
+    <mergeCell ref="AL12:AS12"/>
+    <mergeCell ref="AL9:AS9"/>
+    <mergeCell ref="AL16:AS16"/>
+    <mergeCell ref="AL13:AS13"/>
+    <mergeCell ref="AL10:AS10"/>
+    <mergeCell ref="AL17:AS17"/>
+    <mergeCell ref="AL14:AS14"/>
+    <mergeCell ref="AL11:AS11"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="U13:X13"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U18">
+      <formula1>"text,textarea,password,button,link,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AG58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="23" width="3.67188" style="119" customWidth="1"/>
+    <col min="24" max="27" width="2.85156" style="119" customWidth="1"/>
+    <col min="28" max="29" width="3.67188" style="119" customWidth="1"/>
+    <col min="30" max="33" width="2.85156" style="119" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -5918,7 +7589,7 @@
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
-        <v>44113</v>
+        <v>44141</v>
       </c>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
@@ -6008,730 +7679,2770 @@
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="B4" t="s" s="120">
+        <v>76</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
       <c r="AG4" s="31"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" t="s" s="95">
-        <v>38</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" t="s" s="95">
-        <v>39</v>
-      </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" t="s" s="95">
-        <v>40</v>
-      </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" t="s" s="95">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" t="s" s="95">
-        <v>42</v>
-      </c>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" t="s" s="95">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="96"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="96"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="45"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="31"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="97">
-        <v>1</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" t="s" s="98">
-        <v>44</v>
-      </c>
+      <c r="A6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="D6" s="76"/>
       <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" t="s" s="98">
-        <v>45</v>
-      </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="45"/>
+      <c r="F6" t="s" s="121">
+        <v>78</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="57"/>
+      <c r="S6" t="s" s="74">
+        <v>79</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" t="s" s="74">
+        <v>80</v>
+      </c>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="31"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="97">
-        <v>2</v>
-      </c>
-      <c r="C7" s="83"/>
-      <c r="D7" t="s" s="98">
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="48"/>
+      <c r="S7" t="s" s="74">
+        <v>81</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" t="s" s="74">
+        <v>78</v>
+      </c>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="31"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="31"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" t="s" s="120">
+        <v>82</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="31"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="31"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="31"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="83"/>
+      <c r="F13" t="s" s="121">
+        <v>83</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="57"/>
+      <c r="S13" t="s" s="74">
+        <v>79</v>
+      </c>
+      <c r="T13" s="76"/>
+      <c r="U13" t="s" s="74">
+        <v>80</v>
+      </c>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="31"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="48"/>
+      <c r="S14" t="s" s="74">
+        <v>81</v>
+      </c>
+      <c r="T14" s="76"/>
+      <c r="U14" t="s" s="74">
         <v>49</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" t="s" s="98">
-        <v>50</v>
-      </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="45"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="97">
-        <v>3</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" t="s" s="98">
-        <v>51</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" t="s" s="98">
-        <v>52</v>
-      </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="45"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="101">
-        <v>4</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" t="s" s="98">
-        <v>53</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" t="s" s="98">
-        <v>54</v>
-      </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="45"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="101">
-        <v>5</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" t="s" s="98">
-        <v>55</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" t="s" s="98">
-        <v>56</v>
-      </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="45"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="101">
-        <v>6</v>
-      </c>
-      <c r="C11" s="83"/>
-      <c r="D11" t="s" s="98">
-        <v>57</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" t="s" s="98">
-        <v>16</v>
-      </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="45"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="101">
-        <v>7</v>
-      </c>
-      <c r="C12" s="83"/>
-      <c r="D12" t="s" s="98">
-        <v>58</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" t="s" s="98">
-        <v>59</v>
-      </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="45"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="101">
-        <v>8</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" t="s" s="98">
-        <v>60</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" t="s" s="98">
-        <v>61</v>
-      </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="45"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="101">
-        <v>9</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" t="s" s="98">
-        <v>62</v>
-      </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" t="s" s="98">
-        <v>63</v>
-      </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" t="s" s="99">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="45"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="31"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="101">
-        <v>10</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" t="s" s="98">
-        <v>64</v>
-      </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" t="s" s="98">
-        <v>65</v>
-      </c>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" t="s" s="99">
-        <v>66</v>
-      </c>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="100"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
-      <c r="AG15" s="45"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="31"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="101">
-        <v>11</v>
-      </c>
-      <c r="C16" s="83"/>
-      <c r="D16" t="s" s="98">
-        <v>67</v>
-      </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" t="s" s="98">
-        <v>68</v>
-      </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" t="s" s="99">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="45"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" t="s" s="120">
+        <v>84</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="31"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="101">
-        <v>12</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" t="s" s="98">
-        <v>69</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" t="s" s="98">
-        <v>70</v>
-      </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" t="s" s="99">
-        <v>66</v>
-      </c>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="45"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="31"/>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="101">
-        <v>13</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" t="s" s="98">
-        <v>71</v>
-      </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" t="s" s="98">
-        <v>72</v>
-      </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" t="s" s="99">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" t="s" s="99">
-        <v>47</v>
-      </c>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-      <c r="X18" t="s" s="99">
-        <v>48</v>
-      </c>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="100"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="45"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="31"/>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="32"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="31"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="83"/>
+      <c r="F20" t="s" s="121">
+        <v>85</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="57"/>
+      <c r="S20" t="s" s="74">
+        <v>79</v>
+      </c>
+      <c r="T20" s="76"/>
+      <c r="U20" t="s" s="74">
+        <v>86</v>
+      </c>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="31"/>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="48"/>
+      <c r="S21" t="s" s="74">
+        <v>81</v>
+      </c>
+      <c r="T21" s="76"/>
+      <c r="U21" t="s" s="74">
+        <v>49</v>
+      </c>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="31"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="31"/>
+    </row>
+    <row r="23" ht="16" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" t="s" s="120">
+        <v>87</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="31"/>
+    </row>
+    <row r="24" ht="16" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" t="s" s="120">
+        <v>88</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="31"/>
+    </row>
+    <row r="25" ht="16" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" t="s" s="120">
+        <v>89</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="31"/>
+    </row>
+    <row r="26" ht="16" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="31"/>
+    </row>
+    <row r="27" ht="16" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="30"/>
+      <c r="E27" t="s" s="120">
+        <v>90</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="31"/>
+    </row>
+    <row r="28" ht="16" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" t="s" s="120">
+        <v>91</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="31"/>
+    </row>
+    <row r="29" ht="16" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="31"/>
+    </row>
+    <row r="30" ht="16" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="31"/>
+    </row>
+    <row r="31" ht="16" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="31"/>
+    </row>
+    <row r="32" ht="16" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="31"/>
+    </row>
+    <row r="33" ht="16" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="31"/>
+      <c r="C33" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="83"/>
+      <c r="F33" t="s" s="121">
+        <v>92</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="57"/>
+      <c r="S33" t="s" s="74">
+        <v>79</v>
+      </c>
+      <c r="T33" s="76"/>
+      <c r="U33" t="s" s="74">
+        <v>80</v>
+      </c>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="31"/>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="48"/>
+      <c r="S34" t="s" s="74">
+        <v>81</v>
+      </c>
+      <c r="T34" s="76"/>
+      <c r="U34" t="s" s="74">
+        <v>49</v>
+      </c>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="31"/>
+    </row>
+    <row r="35" ht="16" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="31"/>
+    </row>
+    <row r="36" ht="16" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="31"/>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" t="s" s="120">
+        <v>93</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="120"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="31"/>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="30"/>
+      <c r="E38" t="s" s="120">
+        <v>94</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="31"/>
+    </row>
+    <row r="39" ht="16" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" t="s" s="126">
+        <v>95</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="124"/>
+      <c r="AF39" s="125"/>
+      <c r="AG39" s="31"/>
+    </row>
+    <row r="40" ht="16" customHeight="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="125"/>
+      <c r="AG40" s="31"/>
+    </row>
+    <row r="41" ht="16" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="11"/>
+      <c r="E41" t="s" s="120">
+        <v>96</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="124"/>
+      <c r="AF41" s="125"/>
+      <c r="AG41" s="31"/>
+    </row>
+    <row r="42" ht="16" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" t="s" s="126">
+        <v>97</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="124"/>
+      <c r="AF42" s="125"/>
+      <c r="AG42" s="31"/>
+    </row>
+    <row r="43" ht="16" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="128"/>
+      <c r="W43" s="128"/>
+      <c r="X43" s="128"/>
+      <c r="Y43" s="128"/>
+      <c r="Z43" s="128"/>
+      <c r="AA43" s="128"/>
+      <c r="AB43" s="128"/>
+      <c r="AC43" s="128"/>
+      <c r="AD43" s="128"/>
+      <c r="AE43" s="130"/>
+      <c r="AF43" s="125"/>
+      <c r="AG43" s="31"/>
+    </row>
+    <row r="44" ht="16" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="31"/>
+    </row>
+    <row r="45" ht="16" customHeight="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="124"/>
+      <c r="C45" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="83"/>
+      <c r="F45" t="s" s="121">
+        <v>98</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="57"/>
+      <c r="S45" t="s" s="74">
+        <v>79</v>
+      </c>
+      <c r="T45" s="76"/>
+      <c r="U45" t="s" s="74">
+        <v>80</v>
+      </c>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75"/>
+      <c r="AD45" s="75"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="125"/>
+      <c r="AG45" s="31"/>
+    </row>
+    <row r="46" ht="16" customHeight="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="48"/>
+      <c r="S46" t="s" s="74">
+        <v>81</v>
+      </c>
+      <c r="T46" s="76"/>
+      <c r="U46" t="s" s="74">
+        <v>49</v>
+      </c>
+      <c r="V46" s="75"/>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="Z46" s="75"/>
+      <c r="AA46" s="75"/>
+      <c r="AB46" s="75"/>
+      <c r="AC46" s="75"/>
+      <c r="AD46" s="75"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="125"/>
+      <c r="AG46" s="31"/>
+    </row>
+    <row r="47" ht="16" customHeight="1">
+      <c r="A47" s="32"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132"/>
+      <c r="R47" s="132"/>
+      <c r="S47" s="132"/>
+      <c r="T47" s="132"/>
+      <c r="U47" s="132"/>
+      <c r="V47" s="132"/>
+      <c r="W47" s="132"/>
+      <c r="X47" s="132"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="132"/>
+      <c r="AA47" s="132"/>
+      <c r="AB47" s="132"/>
+      <c r="AC47" s="132"/>
+      <c r="AD47" s="132"/>
+      <c r="AE47" s="133"/>
+      <c r="AF47" s="125"/>
+      <c r="AG47" s="31"/>
+    </row>
+    <row r="48" ht="16" customHeight="1">
+      <c r="A48" s="32"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="125"/>
+      <c r="D48" t="s" s="120">
+        <v>99</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="124"/>
+      <c r="AF48" s="125"/>
+      <c r="AG48" s="31"/>
+    </row>
+    <row r="49" ht="26.15" customHeight="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="127"/>
+      <c r="D49" t="s" s="123">
+        <v>100</v>
+      </c>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="128"/>
+      <c r="N49" s="128"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="128"/>
+      <c r="S49" s="128"/>
+      <c r="T49" s="128"/>
+      <c r="U49" s="128"/>
+      <c r="V49" s="128"/>
+      <c r="W49" s="128"/>
+      <c r="X49" s="128"/>
+      <c r="Y49" s="128"/>
+      <c r="Z49" s="128"/>
+      <c r="AA49" s="128"/>
+      <c r="AB49" s="128"/>
+      <c r="AC49" s="128"/>
+      <c r="AD49" s="128"/>
+      <c r="AE49" s="130"/>
+      <c r="AF49" s="125"/>
+      <c r="AG49" s="31"/>
+    </row>
+    <row r="50" ht="16" customHeight="1">
+      <c r="A50" s="32"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="75"/>
+      <c r="T50" s="75"/>
+      <c r="U50" s="75"/>
+      <c r="V50" s="75"/>
+      <c r="W50" s="75"/>
+      <c r="X50" s="75"/>
+      <c r="Y50" s="75"/>
+      <c r="Z50" s="75"/>
+      <c r="AA50" s="75"/>
+      <c r="AB50" s="75"/>
+      <c r="AC50" s="75"/>
+      <c r="AD50" s="75"/>
+      <c r="AE50" s="75"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="31"/>
+    </row>
+    <row r="51" ht="16" customHeight="1">
+      <c r="A51" s="32"/>
+      <c r="B51" s="31"/>
+      <c r="C51" t="s" s="74">
+        <v>77</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="E51" s="83"/>
+      <c r="F51" t="s" s="121">
+        <v>101</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="57"/>
+      <c r="S51" t="s" s="74">
+        <v>79</v>
+      </c>
+      <c r="T51" s="76"/>
+      <c r="U51" t="s" s="74">
+        <v>80</v>
+      </c>
+      <c r="V51" s="75"/>
+      <c r="W51" s="75"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="75"/>
+      <c r="Z51" s="75"/>
+      <c r="AA51" s="75"/>
+      <c r="AB51" s="75"/>
+      <c r="AC51" s="75"/>
+      <c r="AD51" s="75"/>
+      <c r="AE51" s="76"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="31"/>
+    </row>
+    <row r="52" ht="16" customHeight="1">
+      <c r="A52" s="32"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="48"/>
+      <c r="S52" t="s" s="74">
+        <v>81</v>
+      </c>
+      <c r="T52" s="76"/>
+      <c r="U52" t="s" s="74">
+        <v>49</v>
+      </c>
+      <c r="V52" s="75"/>
+      <c r="W52" s="75"/>
+      <c r="X52" s="75"/>
+      <c r="Y52" s="75"/>
+      <c r="Z52" s="75"/>
+      <c r="AA52" s="75"/>
+      <c r="AB52" s="75"/>
+      <c r="AC52" s="75"/>
+      <c r="AD52" s="75"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="31"/>
+    </row>
+    <row r="53" ht="16" customHeight="1">
+      <c r="A53" s="32"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="36"/>
+      <c r="AB53" s="36"/>
+      <c r="AC53" s="36"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="31"/>
+    </row>
+    <row r="54" ht="16" customHeight="1">
+      <c r="A54" s="32"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" t="s" s="120">
+        <v>102</v>
+      </c>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="32"/>
+      <c r="AG54" s="31"/>
+    </row>
+    <row r="55" ht="16" customHeight="1">
+      <c r="A55" s="32"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" t="s" s="120">
+        <v>103</v>
+      </c>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="31"/>
+    </row>
+    <row r="56" ht="16" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="33"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="31"/>
+    </row>
+    <row r="57" ht="16" customHeight="1">
+      <c r="A57" s="32"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="31"/>
+    </row>
+    <row r="58" ht="16" customHeight="1">
+      <c r="A58" s="47"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="23" width="3.67188" style="134" customWidth="1"/>
+    <col min="24" max="27" width="2.85156" style="134" customWidth="1"/>
+    <col min="28" max="29" width="3.67188" style="134" customWidth="1"/>
+    <col min="30" max="33" width="2.85156" style="134" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="134" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="50">
+        <v>19</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" t="s" s="52">
+        <v>28</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" t="s" s="50">
+        <v>23</v>
+      </c>
+      <c r="W1" s="51"/>
+      <c r="X1" t="s" s="50">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" t="s" s="50">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="54">
+        <v>44141</v>
+      </c>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="50">
+        <v>21</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" t="s" s="52">
+        <v>30</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" t="s" s="50">
+        <v>31</v>
+      </c>
+      <c r="W2" s="51"/>
+      <c r="X2" s="55">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" t="s" s="50">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="55">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="57"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" t="s" s="120">
+        <v>104</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="31"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" t="s" s="120">
+        <v>105</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" t="s" s="120">
+        <v>106</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="31"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" t="s" s="120">
+        <v>107</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" t="s" s="120">
+        <v>108</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="31"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="31"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="31"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="31"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="31"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="31"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="31"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="31"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="31"/>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="31"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="31"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
       <c r="AG19" s="31"/>
     </row>
     <row r="20" ht="16" customHeight="1">
@@ -6980,3275 +10691,6 @@
       <c r="AG26" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X6:AF6"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="X8:AF8"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="X5:AF5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AF10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AF11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AF12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AF13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AF14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X17:AF17"/>
-    <mergeCell ref="X16:AF16"/>
-    <mergeCell ref="X15:AF15"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="B18:C18"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P18">
-      <formula1>"text,textarea,password,button,link"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="23" width="3.67188" style="102" customWidth="1"/>
-    <col min="24" max="27" width="2.85156" style="102" customWidth="1"/>
-    <col min="28" max="29" width="3.67188" style="102" customWidth="1"/>
-    <col min="30" max="33" width="2.85156" style="102" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="102" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="50">
-        <v>19</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" t="s" s="52">
-        <v>28</v>
-      </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" t="s" s="50">
-        <v>23</v>
-      </c>
-      <c r="W1" s="51"/>
-      <c r="X1" t="s" s="50">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" t="s" s="50">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="54">
-        <v>44113</v>
-      </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="50">
-        <v>21</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" t="s" s="52">
-        <v>30</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" t="s" s="50">
-        <v>31</v>
-      </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" t="s" s="50">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="55">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="57"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" t="s" s="103">
-        <v>73</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="31"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="31"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="31"/>
-      <c r="C6" t="s" s="74">
-        <v>74</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="83"/>
-      <c r="F6" t="s" s="104">
-        <v>75</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="57"/>
-      <c r="S6" t="s" s="74">
-        <v>76</v>
-      </c>
-      <c r="T6" s="76"/>
-      <c r="U6" t="s" s="74">
-        <v>77</v>
-      </c>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="31"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="48"/>
-      <c r="S7" t="s" s="74">
-        <v>78</v>
-      </c>
-      <c r="T7" s="76"/>
-      <c r="U7" t="s" s="74">
-        <v>75</v>
-      </c>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="31"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="31"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" t="s" s="103">
-        <v>79</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="31"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="31"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="31"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="31"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31"/>
-      <c r="C13" t="s" s="74">
-        <v>74</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="83"/>
-      <c r="F13" t="s" s="104">
-        <v>80</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="57"/>
-      <c r="S13" t="s" s="74">
-        <v>76</v>
-      </c>
-      <c r="T13" s="76"/>
-      <c r="U13" t="s" s="74">
-        <v>77</v>
-      </c>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="31"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="48"/>
-      <c r="S14" t="s" s="74">
-        <v>78</v>
-      </c>
-      <c r="T14" s="76"/>
-      <c r="U14" t="s" s="74">
-        <v>47</v>
-      </c>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="31"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="31"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" t="s" s="103">
-        <v>81</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="31"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="31"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="31"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="31"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="31"/>
-      <c r="C20" t="s" s="74">
-        <v>74</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="83"/>
-      <c r="F20" t="s" s="104">
-        <v>82</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="57"/>
-      <c r="S20" t="s" s="74">
-        <v>76</v>
-      </c>
-      <c r="T20" s="76"/>
-      <c r="U20" t="s" s="74">
-        <v>83</v>
-      </c>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="31"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="48"/>
-      <c r="S21" t="s" s="74">
-        <v>78</v>
-      </c>
-      <c r="T21" s="76"/>
-      <c r="U21" t="s" s="74">
-        <v>47</v>
-      </c>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="31"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="31"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" t="s" s="103">
-        <v>84</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="31"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="30"/>
-      <c r="E24" t="s" s="103">
-        <v>85</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="31"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" t="s" s="103">
-        <v>86</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="31"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="31"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="30"/>
-      <c r="E27" t="s" s="103">
-        <v>87</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="31"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" t="s" s="103">
-        <v>88</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="31"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="31"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="31"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="31"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="31"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="31"/>
-      <c r="C33" t="s" s="74">
-        <v>74</v>
-      </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="83"/>
-      <c r="F33" t="s" s="104">
-        <v>89</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="57"/>
-      <c r="S33" t="s" s="74">
-        <v>76</v>
-      </c>
-      <c r="T33" s="76"/>
-      <c r="U33" t="s" s="74">
-        <v>77</v>
-      </c>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="31"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="48"/>
-      <c r="S34" t="s" s="74">
-        <v>78</v>
-      </c>
-      <c r="T34" s="76"/>
-      <c r="U34" t="s" s="74">
-        <v>47</v>
-      </c>
-      <c r="V34" s="75"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="31"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="31"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="31"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" t="s" s="103">
-        <v>90</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="103"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="31"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="30"/>
-      <c r="E38" t="s" s="103">
-        <v>91</v>
-      </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="31"/>
-    </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" t="s" s="109">
-        <v>92</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="31"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="108"/>
-      <c r="AG40" s="31"/>
-    </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="11"/>
-      <c r="E41" t="s" s="103">
-        <v>93</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
-      <c r="AD41" s="11"/>
-      <c r="AE41" s="107"/>
-      <c r="AF41" s="108"/>
-      <c r="AG41" s="31"/>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" t="s" s="109">
-        <v>94</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="108"/>
-      <c r="AG42" s="31"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="111"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="108"/>
-      <c r="AG43" s="31"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="116"/>
-      <c r="AB44" s="116"/>
-      <c r="AC44" s="116"/>
-      <c r="AD44" s="116"/>
-      <c r="AE44" s="117"/>
-      <c r="AF44" s="118"/>
-      <c r="AG44" s="31"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="107"/>
-      <c r="C45" t="s" s="74">
-        <v>74</v>
-      </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="83"/>
-      <c r="F45" t="s" s="104">
-        <v>95</v>
-      </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="57"/>
-      <c r="S45" t="s" s="74">
-        <v>76</v>
-      </c>
-      <c r="T45" s="76"/>
-      <c r="U45" t="s" s="74">
-        <v>77</v>
-      </c>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
-      <c r="AA45" s="75"/>
-      <c r="AB45" s="75"/>
-      <c r="AC45" s="75"/>
-      <c r="AD45" s="75"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="108"/>
-      <c r="AG45" s="31"/>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="48"/>
-      <c r="S46" t="s" s="74">
-        <v>78</v>
-      </c>
-      <c r="T46" s="76"/>
-      <c r="U46" t="s" s="74">
-        <v>47</v>
-      </c>
-      <c r="V46" s="75"/>
-      <c r="W46" s="75"/>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="75"/>
-      <c r="AA46" s="75"/>
-      <c r="AB46" s="75"/>
-      <c r="AC46" s="75"/>
-      <c r="AD46" s="75"/>
-      <c r="AE46" s="76"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="31"/>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="120"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="120"/>
-      <c r="X47" s="120"/>
-      <c r="Y47" s="120"/>
-      <c r="Z47" s="120"/>
-      <c r="AA47" s="120"/>
-      <c r="AB47" s="120"/>
-      <c r="AC47" s="120"/>
-      <c r="AD47" s="120"/>
-      <c r="AE47" s="121"/>
-      <c r="AF47" s="108"/>
-      <c r="AG47" s="31"/>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="122"/>
-      <c r="D48" t="s" s="103">
-        <v>96</v>
-      </c>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="123"/>
-      <c r="N48" s="123"/>
-      <c r="O48" s="123"/>
-      <c r="P48" s="123"/>
-      <c r="Q48" s="123"/>
-      <c r="R48" s="123"/>
-      <c r="S48" s="123"/>
-      <c r="T48" s="123"/>
-      <c r="U48" s="123"/>
-      <c r="V48" s="123"/>
-      <c r="W48" s="123"/>
-      <c r="X48" s="123"/>
-      <c r="Y48" s="123"/>
-      <c r="Z48" s="123"/>
-      <c r="AA48" s="123"/>
-      <c r="AB48" s="123"/>
-      <c r="AC48" s="123"/>
-      <c r="AD48" s="123"/>
-      <c r="AE48" s="124"/>
-      <c r="AF48" s="108"/>
-      <c r="AG48" s="31"/>
-    </row>
-    <row r="49" ht="26.15" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="125"/>
-      <c r="D49" t="s" s="106">
-        <v>97</v>
-      </c>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="126"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="126"/>
-      <c r="N49" s="126"/>
-      <c r="O49" s="126"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="126"/>
-      <c r="R49" s="126"/>
-      <c r="S49" s="126"/>
-      <c r="T49" s="126"/>
-      <c r="U49" s="126"/>
-      <c r="V49" s="126"/>
-      <c r="W49" s="126"/>
-      <c r="X49" s="126"/>
-      <c r="Y49" s="126"/>
-      <c r="Z49" s="126"/>
-      <c r="AA49" s="126"/>
-      <c r="AB49" s="126"/>
-      <c r="AC49" s="126"/>
-      <c r="AD49" s="126"/>
-      <c r="AE49" s="127"/>
-      <c r="AF49" s="108"/>
-      <c r="AG49" s="31"/>
-    </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="75"/>
-      <c r="U50" s="75"/>
-      <c r="V50" s="75"/>
-      <c r="W50" s="75"/>
-      <c r="X50" s="75"/>
-      <c r="Y50" s="75"/>
-      <c r="Z50" s="75"/>
-      <c r="AA50" s="75"/>
-      <c r="AB50" s="75"/>
-      <c r="AC50" s="75"/>
-      <c r="AD50" s="75"/>
-      <c r="AE50" s="75"/>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="31"/>
-    </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="32"/>
-      <c r="B51" s="31"/>
-      <c r="C51" t="s" s="74">
-        <v>74</v>
-      </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="83"/>
-      <c r="F51" t="s" s="104">
-        <v>98</v>
-      </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="57"/>
-      <c r="S51" t="s" s="74">
-        <v>76</v>
-      </c>
-      <c r="T51" s="76"/>
-      <c r="U51" t="s" s="74">
-        <v>77</v>
-      </c>
-      <c r="V51" s="75"/>
-      <c r="W51" s="75"/>
-      <c r="X51" s="75"/>
-      <c r="Y51" s="75"/>
-      <c r="Z51" s="75"/>
-      <c r="AA51" s="75"/>
-      <c r="AB51" s="75"/>
-      <c r="AC51" s="75"/>
-      <c r="AD51" s="75"/>
-      <c r="AE51" s="76"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="31"/>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="48"/>
-      <c r="S52" t="s" s="74">
-        <v>78</v>
-      </c>
-      <c r="T52" s="76"/>
-      <c r="U52" t="s" s="74">
-        <v>47</v>
-      </c>
-      <c r="V52" s="75"/>
-      <c r="W52" s="75"/>
-      <c r="X52" s="75"/>
-      <c r="Y52" s="75"/>
-      <c r="Z52" s="75"/>
-      <c r="AA52" s="75"/>
-      <c r="AB52" s="75"/>
-      <c r="AC52" s="75"/>
-      <c r="AD52" s="75"/>
-      <c r="AE52" s="76"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="31"/>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="32"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="57"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="31"/>
-    </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" t="s" s="103">
-        <v>99</v>
-      </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="31"/>
-    </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" t="s" s="103">
-        <v>100</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="31"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="31"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="48"/>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="31"/>
-    </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
-      <c r="AC57" s="36"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="36"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="31"/>
-    </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="47"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-  </mergeCells>
-  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="23" width="3.67188" style="128" customWidth="1"/>
-    <col min="24" max="27" width="2.85156" style="128" customWidth="1"/>
-    <col min="28" max="29" width="3.67188" style="128" customWidth="1"/>
-    <col min="30" max="33" width="2.85156" style="128" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="128" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="50">
-        <v>19</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" t="s" s="52">
-        <v>28</v>
-      </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" t="s" s="50">
-        <v>23</v>
-      </c>
-      <c r="W1" s="51"/>
-      <c r="X1" t="s" s="50">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" t="s" s="50">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="54">
-        <v>44113</v>
-      </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="50">
-        <v>21</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" t="s" s="52">
-        <v>30</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" t="s" s="50">
-        <v>31</v>
-      </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" t="s" s="50">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="55">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="57"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" t="s" s="103">
-        <v>101</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="31"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="30"/>
-      <c r="C5" t="s" s="103">
-        <v>102</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" t="s" s="103">
-        <v>103</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="31"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="30"/>
-      <c r="C6" t="s" s="103">
-        <v>104</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" t="s" s="103">
-        <v>105</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="31"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="31"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="31"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="31"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="31"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="31"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="31"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="31"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="31"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="31"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="31"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="31"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="31"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="31"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="31"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="31"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="31"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="31"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="31"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="31"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="48"/>
-    </row>
-  </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="A1:E1"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK04001_勤務報告書画面.xlsx
@@ -11,13 +11,14 @@
     <sheet name="画面デザイン" sheetId="4" r:id="rId7"/>
     <sheet name="入出力項目" sheetId="5" r:id="rId8"/>
     <sheet name="処理概要 " sheetId="6" r:id="rId9"/>
-    <sheet name="備考" sheetId="7" r:id="rId10"/>
+    <sheet name="処理概要(javascript)" sheetId="7" r:id="rId10"/>
+    <sheet name="備考" sheetId="8" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -274,7 +275,7 @@
     <t>稼働時間合計</t>
   </si>
   <si>
-    <t>work_report_mothly</t>
+    <t>work_report_monthly</t>
   </si>
   <si>
     <t>pj_mei</t>
@@ -289,6 +290,33 @@
     <t>特記事項</t>
   </si>
   <si>
+    <t>workingDate</t>
+  </si>
+  <si>
+    <t>年月</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>teiji</t>
+  </si>
+  <si>
+    <t>定時間</t>
+  </si>
+  <si>
+    <t>jkngiKei</t>
+  </si>
+  <si>
+    <t>時間外労働合計</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
@@ -316,13 +344,13 @@
     <t>取消</t>
   </si>
   <si>
-    <t>KK04001_Controller</t>
+    <t>KK04001Controller</t>
   </si>
   <si>
     <t>メソッド</t>
   </si>
   <si>
-    <t>WorkReportForm</t>
+    <t>KK04001Form</t>
   </si>
   <si>
     <t>引数</t>
@@ -398,6 +426,12 @@
   </si>
   <si>
     <t>　社員が勤務報告書を変更できないよう(work_report_monthlyテーブルのauth_flg=“1”)にして、自画面を再表示する。</t>
+  </si>
+  <si>
+    <t>処理概要(javascript)</t>
+  </si>
+  <si>
+    <t>1. jsの処理記述</t>
   </si>
   <si>
     <t>使用テーブル</t>
@@ -528,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1005,105 +1039,51 @@
     </border>
     <border>
       <left/>
-      <right>
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
-      </right>
-      <top style="thin">
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top>
         <color indexed="8"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1114,7 +1094,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1412,6 +1392,87 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1426,96 +1487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2814,7 +2785,7 @@
     <row r="21" ht="13" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" t="s" s="3">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2827,20 +2798,27 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
+        <v>113</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" ht="13" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22"/>
-      <c r="C23" t="s" s="23">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="4"/>
+      <c r="C24" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="D23" t="s" s="24">
-        <v>17</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="D24" t="s" s="5">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2862,7 +2840,8 @@
     <hyperlink ref="D16" location="'画面デザイン'!R1C1" tooltip="" display="画面デザイン"/>
     <hyperlink ref="D18" location="'入出力項目'!R1C1" tooltip="" display="入出力項目"/>
     <hyperlink ref="D20" location="'処理概要 '!R1C1" tooltip="" display="処理概要 "/>
-    <hyperlink ref="D22" location="'備考'!R1C1" tooltip="" display="備考"/>
+    <hyperlink ref="D22" location="'処理概要(javascript)'!R1C1" tooltip="" display="処理概要(javascript)"/>
+    <hyperlink ref="D24" location="'備考'!R1C1" tooltip="" display="備考"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3480,7 +3459,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
       <c r="M17" s="46">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
@@ -3900,7 +3879,7 @@
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
@@ -4111,7 +4090,7 @@
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
       <c r="E7" s="71">
-        <v>44113</v>
+        <v>44145</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
@@ -4966,7 +4945,7 @@
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
@@ -5951,7 +5930,7 @@
       </c>
       <c r="AP1" s="51"/>
       <c r="AQ1" s="54">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="AR1" s="51"/>
       <c r="AS1" s="51"/>
@@ -6050,20 +6029,20 @@
       <c r="AD3" s="36"/>
       <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
-      <c r="AN3" s="100"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="100"/>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="100"/>
-      <c r="AT3" s="101"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="57"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="32"/>
@@ -6098,74 +6077,74 @@
       <c r="AD4" s="33"/>
       <c r="AE4" s="33"/>
       <c r="AF4" s="33"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="104"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="31"/>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="45"/>
-      <c r="B5" t="s" s="105">
+      <c r="B5" t="s" s="99">
         <v>38</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" t="s" s="105">
+      <c r="C5" s="100"/>
+      <c r="D5" t="s" s="99">
         <v>39</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" t="s" s="105">
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" t="s" s="99">
         <v>40</v>
       </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" t="s" s="107">
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" t="s" s="101">
         <v>41</v>
       </c>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
-      <c r="U5" t="s" s="105">
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="103"/>
+      <c r="U5" t="s" s="99">
         <v>42</v>
       </c>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" t="s" s="105">
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" t="s" s="99">
         <v>43</v>
       </c>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" t="s" s="105">
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" t="s" s="99">
         <v>44</v>
       </c>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
       <c r="AG5" s="95"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" t="s" s="105">
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" t="s" s="99">
         <v>16</v>
       </c>
       <c r="AM5" s="95"/>
@@ -6179,11 +6158,11 @@
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="110">
+      <c r="B6" s="104">
         <v>1</v>
       </c>
       <c r="C6" s="95"/>
-      <c r="D6" t="s" s="111">
+      <c r="D6" t="s" s="105">
         <v>45</v>
       </c>
       <c r="E6" s="95"/>
@@ -6191,7 +6170,7 @@
       <c r="G6" s="95"/>
       <c r="H6" s="95"/>
       <c r="I6" s="95"/>
-      <c r="J6" t="s" s="111">
+      <c r="J6" t="s" s="105">
         <v>46</v>
       </c>
       <c r="K6" s="95"/>
@@ -6199,26 +6178,26 @@
       <c r="M6" s="95"/>
       <c r="N6" s="95"/>
       <c r="O6" s="95"/>
-      <c r="P6" t="s" s="112">
+      <c r="P6" t="s" s="106">
         <v>47</v>
       </c>
       <c r="Q6" s="97"/>
       <c r="R6" s="97"/>
       <c r="S6" s="97"/>
       <c r="T6" s="98"/>
-      <c r="U6" t="s" s="113">
+      <c r="U6" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V6" s="95"/>
       <c r="W6" s="95"/>
       <c r="X6" s="95"/>
-      <c r="Y6" t="s" s="113">
+      <c r="Y6" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z6" s="114"/>
-      <c r="AA6" s="114"/>
-      <c r="AB6" s="114"/>
-      <c r="AC6" t="s" s="113">
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="108"/>
+      <c r="AC6" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD6" s="95"/>
@@ -6229,7 +6208,7 @@
       <c r="AI6" s="95"/>
       <c r="AJ6" s="95"/>
       <c r="AK6" s="95"/>
-      <c r="AL6" t="s" s="113">
+      <c r="AL6" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM6" s="95"/>
@@ -6243,11 +6222,11 @@
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="110">
+      <c r="B7" s="104">
         <v>2</v>
       </c>
       <c r="C7" s="95"/>
-      <c r="D7" t="s" s="111">
+      <c r="D7" t="s" s="105">
         <v>51</v>
       </c>
       <c r="E7" s="95"/>
@@ -6255,7 +6234,7 @@
       <c r="G7" s="95"/>
       <c r="H7" s="95"/>
       <c r="I7" s="95"/>
-      <c r="J7" t="s" s="111">
+      <c r="J7" t="s" s="105">
         <v>52</v>
       </c>
       <c r="K7" s="95"/>
@@ -6263,26 +6242,26 @@
       <c r="M7" s="95"/>
       <c r="N7" s="95"/>
       <c r="O7" s="95"/>
-      <c r="P7" t="s" s="112">
+      <c r="P7" t="s" s="106">
         <v>47</v>
       </c>
       <c r="Q7" s="97"/>
       <c r="R7" s="97"/>
       <c r="S7" s="97"/>
       <c r="T7" s="98"/>
-      <c r="U7" t="s" s="113">
+      <c r="U7" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V7" s="95"/>
       <c r="W7" s="95"/>
       <c r="X7" s="95"/>
-      <c r="Y7" t="s" s="113">
+      <c r="Y7" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" t="s" s="113">
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD7" s="95"/>
@@ -6293,7 +6272,7 @@
       <c r="AI7" s="95"/>
       <c r="AJ7" s="95"/>
       <c r="AK7" s="95"/>
-      <c r="AL7" t="s" s="113">
+      <c r="AL7" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM7" s="95"/>
@@ -6307,11 +6286,11 @@
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="110">
+      <c r="B8" s="104">
         <v>3</v>
       </c>
       <c r="C8" s="95"/>
-      <c r="D8" t="s" s="111">
+      <c r="D8" t="s" s="105">
         <v>53</v>
       </c>
       <c r="E8" s="95"/>
@@ -6319,7 +6298,7 @@
       <c r="G8" s="95"/>
       <c r="H8" s="95"/>
       <c r="I8" s="95"/>
-      <c r="J8" t="s" s="111">
+      <c r="J8" t="s" s="105">
         <v>54</v>
       </c>
       <c r="K8" s="95"/>
@@ -6327,26 +6306,26 @@
       <c r="M8" s="95"/>
       <c r="N8" s="95"/>
       <c r="O8" s="95"/>
-      <c r="P8" t="s" s="112">
+      <c r="P8" t="s" s="106">
         <v>47</v>
       </c>
       <c r="Q8" s="97"/>
       <c r="R8" s="97"/>
       <c r="S8" s="97"/>
       <c r="T8" s="98"/>
-      <c r="U8" t="s" s="113">
+      <c r="U8" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V8" s="95"/>
       <c r="W8" s="95"/>
       <c r="X8" s="95"/>
-      <c r="Y8" t="s" s="113">
+      <c r="Y8" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" t="s" s="113">
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD8" s="95"/>
@@ -6357,7 +6336,7 @@
       <c r="AI8" s="95"/>
       <c r="AJ8" s="95"/>
       <c r="AK8" s="95"/>
-      <c r="AL8" t="s" s="113">
+      <c r="AL8" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM8" s="95"/>
@@ -6371,11 +6350,11 @@
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="110">
+      <c r="B9" s="104">
         <v>4</v>
       </c>
       <c r="C9" s="95"/>
-      <c r="D9" t="s" s="111">
+      <c r="D9" t="s" s="105">
         <v>55</v>
       </c>
       <c r="E9" s="95"/>
@@ -6383,7 +6362,7 @@
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
       <c r="I9" s="95"/>
-      <c r="J9" t="s" s="111">
+      <c r="J9" t="s" s="105">
         <v>56</v>
       </c>
       <c r="K9" s="95"/>
@@ -6391,26 +6370,26 @@
       <c r="M9" s="95"/>
       <c r="N9" s="95"/>
       <c r="O9" s="95"/>
-      <c r="P9" t="s" s="112">
+      <c r="P9" t="s" s="106">
         <v>47</v>
       </c>
       <c r="Q9" s="97"/>
       <c r="R9" s="97"/>
       <c r="S9" s="97"/>
       <c r="T9" s="98"/>
-      <c r="U9" t="s" s="113">
+      <c r="U9" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V9" s="95"/>
       <c r="W9" s="95"/>
       <c r="X9" s="95"/>
-      <c r="Y9" t="s" s="113">
+      <c r="Y9" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" t="s" s="113">
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD9" s="95"/>
@@ -6421,7 +6400,7 @@
       <c r="AI9" s="95"/>
       <c r="AJ9" s="95"/>
       <c r="AK9" s="95"/>
-      <c r="AL9" t="s" s="113">
+      <c r="AL9" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM9" s="95"/>
@@ -6435,11 +6414,11 @@
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="45"/>
-      <c r="B10" s="110">
+      <c r="B10" s="104">
         <v>5</v>
       </c>
       <c r="C10" s="95"/>
-      <c r="D10" t="s" s="111">
+      <c r="D10" t="s" s="105">
         <v>57</v>
       </c>
       <c r="E10" s="95"/>
@@ -6447,7 +6426,7 @@
       <c r="G10" s="95"/>
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
-      <c r="J10" t="s" s="111">
+      <c r="J10" t="s" s="105">
         <v>58</v>
       </c>
       <c r="K10" s="95"/>
@@ -6455,26 +6434,26 @@
       <c r="M10" s="95"/>
       <c r="N10" s="95"/>
       <c r="O10" s="95"/>
-      <c r="P10" t="s" s="112">
+      <c r="P10" t="s" s="106">
         <v>47</v>
       </c>
       <c r="Q10" s="97"/>
       <c r="R10" s="97"/>
       <c r="S10" s="97"/>
       <c r="T10" s="98"/>
-      <c r="U10" t="s" s="113">
+      <c r="U10" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V10" s="95"/>
       <c r="W10" s="95"/>
       <c r="X10" s="95"/>
-      <c r="Y10" t="s" s="113">
+      <c r="Y10" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" t="s" s="113">
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD10" s="95"/>
@@ -6485,7 +6464,7 @@
       <c r="AI10" s="95"/>
       <c r="AJ10" s="95"/>
       <c r="AK10" s="95"/>
-      <c r="AL10" t="s" s="113">
+      <c r="AL10" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM10" s="95"/>
@@ -6499,11 +6478,11 @@
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="45"/>
-      <c r="B11" s="110">
+      <c r="B11" s="104">
         <v>6</v>
       </c>
       <c r="C11" s="95"/>
-      <c r="D11" t="s" s="111">
+      <c r="D11" t="s" s="105">
         <v>59</v>
       </c>
       <c r="E11" s="95"/>
@@ -6511,7 +6490,7 @@
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
-      <c r="J11" t="s" s="111">
+      <c r="J11" t="s" s="105">
         <v>16</v>
       </c>
       <c r="K11" s="95"/>
@@ -6519,26 +6498,26 @@
       <c r="M11" s="95"/>
       <c r="N11" s="95"/>
       <c r="O11" s="95"/>
-      <c r="P11" t="s" s="112">
+      <c r="P11" t="s" s="106">
         <v>47</v>
       </c>
       <c r="Q11" s="97"/>
       <c r="R11" s="97"/>
       <c r="S11" s="97"/>
       <c r="T11" s="98"/>
-      <c r="U11" t="s" s="113">
+      <c r="U11" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V11" s="95"/>
       <c r="W11" s="95"/>
       <c r="X11" s="95"/>
-      <c r="Y11" t="s" s="113">
+      <c r="Y11" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" t="s" s="113">
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD11" s="95"/>
@@ -6549,7 +6528,7 @@
       <c r="AI11" s="95"/>
       <c r="AJ11" s="95"/>
       <c r="AK11" s="95"/>
-      <c r="AL11" t="s" s="113">
+      <c r="AL11" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM11" s="95"/>
@@ -6563,11 +6542,11 @@
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="45"/>
-      <c r="B12" s="110">
+      <c r="B12" s="104">
         <v>7</v>
       </c>
       <c r="C12" s="95"/>
-      <c r="D12" t="s" s="111">
+      <c r="D12" t="s" s="105">
         <v>60</v>
       </c>
       <c r="E12" s="95"/>
@@ -6575,7 +6554,7 @@
       <c r="G12" s="95"/>
       <c r="H12" s="95"/>
       <c r="I12" s="95"/>
-      <c r="J12" t="s" s="111">
+      <c r="J12" t="s" s="105">
         <v>61</v>
       </c>
       <c r="K12" s="95"/>
@@ -6583,26 +6562,26 @@
       <c r="M12" s="95"/>
       <c r="N12" s="95"/>
       <c r="O12" s="95"/>
-      <c r="P12" t="s" s="112">
+      <c r="P12" t="s" s="106">
         <v>62</v>
       </c>
       <c r="Q12" s="97"/>
       <c r="R12" s="97"/>
       <c r="S12" s="97"/>
       <c r="T12" s="98"/>
-      <c r="U12" t="s" s="113">
+      <c r="U12" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V12" s="95"/>
       <c r="W12" s="95"/>
       <c r="X12" s="95"/>
-      <c r="Y12" t="s" s="113">
+      <c r="Y12" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" t="s" s="113">
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD12" s="95"/>
@@ -6613,7 +6592,7 @@
       <c r="AI12" s="95"/>
       <c r="AJ12" s="95"/>
       <c r="AK12" s="95"/>
-      <c r="AL12" t="s" s="113">
+      <c r="AL12" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM12" s="95"/>
@@ -6627,11 +6606,11 @@
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="45"/>
-      <c r="B13" s="110">
+      <c r="B13" s="104">
         <v>8</v>
       </c>
       <c r="C13" s="95"/>
-      <c r="D13" t="s" s="111">
+      <c r="D13" t="s" s="105">
         <v>63</v>
       </c>
       <c r="E13" s="95"/>
@@ -6639,7 +6618,7 @@
       <c r="G13" s="95"/>
       <c r="H13" s="95"/>
       <c r="I13" s="95"/>
-      <c r="J13" t="s" s="111">
+      <c r="J13" t="s" s="105">
         <v>64</v>
       </c>
       <c r="K13" s="95"/>
@@ -6647,26 +6626,26 @@
       <c r="M13" s="95"/>
       <c r="N13" s="95"/>
       <c r="O13" s="95"/>
-      <c r="P13" t="s" s="112">
+      <c r="P13" t="s" s="106">
         <v>62</v>
       </c>
       <c r="Q13" s="97"/>
       <c r="R13" s="97"/>
       <c r="S13" s="97"/>
       <c r="T13" s="98"/>
-      <c r="U13" t="s" s="113">
+      <c r="U13" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V13" s="95"/>
       <c r="W13" s="95"/>
       <c r="X13" s="95"/>
-      <c r="Y13" t="s" s="113">
+      <c r="Y13" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" t="s" s="113">
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD13" s="95"/>
@@ -6677,7 +6656,7 @@
       <c r="AI13" s="95"/>
       <c r="AJ13" s="95"/>
       <c r="AK13" s="95"/>
-      <c r="AL13" t="s" s="113">
+      <c r="AL13" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM13" s="95"/>
@@ -6691,11 +6670,11 @@
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="45"/>
-      <c r="B14" s="110">
+      <c r="B14" s="104">
         <v>9</v>
       </c>
       <c r="C14" s="95"/>
-      <c r="D14" t="s" s="111">
+      <c r="D14" t="s" s="105">
         <v>65</v>
       </c>
       <c r="E14" s="95"/>
@@ -6703,7 +6682,7 @@
       <c r="G14" s="95"/>
       <c r="H14" s="95"/>
       <c r="I14" s="95"/>
-      <c r="J14" t="s" s="111">
+      <c r="J14" t="s" s="105">
         <v>66</v>
       </c>
       <c r="K14" s="95"/>
@@ -6711,26 +6690,26 @@
       <c r="M14" s="95"/>
       <c r="N14" s="95"/>
       <c r="O14" s="95"/>
-      <c r="P14" t="s" s="112">
+      <c r="P14" t="s" s="106">
         <v>62</v>
       </c>
       <c r="Q14" s="97"/>
       <c r="R14" s="97"/>
       <c r="S14" s="97"/>
       <c r="T14" s="98"/>
-      <c r="U14" t="s" s="113">
+      <c r="U14" t="s" s="107">
         <v>48</v>
       </c>
       <c r="V14" s="95"/>
       <c r="W14" s="95"/>
       <c r="X14" s="95"/>
-      <c r="Y14" t="s" s="113">
+      <c r="Y14" t="s" s="107">
         <v>49</v>
       </c>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114"/>
-      <c r="AC14" t="s" s="113">
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD14" s="95"/>
@@ -6741,7 +6720,7 @@
       <c r="AI14" s="95"/>
       <c r="AJ14" s="95"/>
       <c r="AK14" s="95"/>
-      <c r="AL14" t="s" s="113">
+      <c r="AL14" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM14" s="95"/>
@@ -6755,11 +6734,11 @@
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="45"/>
-      <c r="B15" s="110">
+      <c r="B15" s="104">
         <v>10</v>
       </c>
       <c r="C15" s="95"/>
-      <c r="D15" t="s" s="111">
+      <c r="D15" t="s" s="105">
         <v>67</v>
       </c>
       <c r="E15" s="95"/>
@@ -6767,7 +6746,7 @@
       <c r="G15" s="95"/>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
-      <c r="J15" t="s" s="111">
+      <c r="J15" t="s" s="105">
         <v>68</v>
       </c>
       <c r="K15" s="95"/>
@@ -6775,26 +6754,26 @@
       <c r="M15" s="95"/>
       <c r="N15" s="95"/>
       <c r="O15" s="95"/>
-      <c r="P15" t="s" s="115">
-        <v>50</v>
+      <c r="P15" t="s" s="106">
+        <v>62</v>
       </c>
       <c r="Q15" s="97"/>
       <c r="R15" s="97"/>
       <c r="S15" s="97"/>
       <c r="T15" s="98"/>
-      <c r="U15" t="s" s="113">
-        <v>69</v>
+      <c r="U15" t="s" s="107">
+        <v>48</v>
       </c>
       <c r="V15" s="95"/>
       <c r="W15" s="95"/>
       <c r="X15" s="95"/>
-      <c r="Y15" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" t="s" s="113">
+      <c r="Y15" t="s" s="107">
+        <v>49</v>
+      </c>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="108"/>
+      <c r="AC15" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD15" s="95"/>
@@ -6805,7 +6784,7 @@
       <c r="AI15" s="95"/>
       <c r="AJ15" s="95"/>
       <c r="AK15" s="95"/>
-      <c r="AL15" t="s" s="113">
+      <c r="AL15" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM15" s="95"/>
@@ -6819,46 +6798,46 @@
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="45"/>
-      <c r="B16" s="110">
+      <c r="B16" s="104">
         <v>11</v>
       </c>
       <c r="C16" s="95"/>
-      <c r="D16" t="s" s="111">
-        <v>70</v>
+      <c r="D16" t="s" s="105">
+        <v>69</v>
       </c>
       <c r="E16" s="95"/>
       <c r="F16" s="95"/>
       <c r="G16" s="95"/>
       <c r="H16" s="95"/>
       <c r="I16" s="95"/>
-      <c r="J16" t="s" s="111">
-        <v>71</v>
+      <c r="J16" t="s" s="105">
+        <v>70</v>
       </c>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
       <c r="N16" s="95"/>
       <c r="O16" s="95"/>
-      <c r="P16" t="s" s="115">
-        <v>50</v>
+      <c r="P16" t="s" s="109">
+        <v>71</v>
       </c>
       <c r="Q16" s="97"/>
       <c r="R16" s="97"/>
       <c r="S16" s="97"/>
       <c r="T16" s="98"/>
-      <c r="U16" t="s" s="113">
-        <v>69</v>
+      <c r="U16" t="s" s="107">
+        <v>48</v>
       </c>
       <c r="V16" s="95"/>
       <c r="W16" s="95"/>
       <c r="X16" s="95"/>
-      <c r="Y16" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="114"/>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" t="s" s="113">
+      <c r="Y16" t="s" s="107">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD16" s="95"/>
@@ -6869,7 +6848,7 @@
       <c r="AI16" s="95"/>
       <c r="AJ16" s="95"/>
       <c r="AK16" s="95"/>
-      <c r="AL16" t="s" s="113">
+      <c r="AL16" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM16" s="95"/>
@@ -6883,11 +6862,11 @@
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="45"/>
-      <c r="B17" s="110">
+      <c r="B17" s="104">
         <v>12</v>
       </c>
       <c r="C17" s="95"/>
-      <c r="D17" t="s" s="111">
+      <c r="D17" t="s" s="105">
         <v>72</v>
       </c>
       <c r="E17" s="95"/>
@@ -6895,7 +6874,7 @@
       <c r="G17" s="95"/>
       <c r="H17" s="95"/>
       <c r="I17" s="95"/>
-      <c r="J17" t="s" s="111">
+      <c r="J17" t="s" s="105">
         <v>73</v>
       </c>
       <c r="K17" s="95"/>
@@ -6903,26 +6882,26 @@
       <c r="M17" s="95"/>
       <c r="N17" s="95"/>
       <c r="O17" s="95"/>
-      <c r="P17" t="s" s="115">
-        <v>50</v>
+      <c r="P17" t="s" s="106">
+        <v>62</v>
       </c>
       <c r="Q17" s="97"/>
       <c r="R17" s="97"/>
       <c r="S17" s="97"/>
       <c r="T17" s="98"/>
-      <c r="U17" t="s" s="113">
-        <v>69</v>
+      <c r="U17" t="s" s="107">
+        <v>48</v>
       </c>
       <c r="V17" s="95"/>
       <c r="W17" s="95"/>
       <c r="X17" s="95"/>
-      <c r="Y17" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114"/>
-      <c r="AC17" t="s" s="113">
+      <c r="Y17" t="s" s="107">
+        <v>49</v>
+      </c>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD17" s="95"/>
@@ -6933,7 +6912,7 @@
       <c r="AI17" s="95"/>
       <c r="AJ17" s="95"/>
       <c r="AK17" s="95"/>
-      <c r="AL17" t="s" s="113">
+      <c r="AL17" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM17" s="95"/>
@@ -6947,11 +6926,11 @@
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="45"/>
-      <c r="B18" s="110">
+      <c r="B18" s="104">
         <v>13</v>
       </c>
       <c r="C18" s="95"/>
-      <c r="D18" t="s" s="111">
+      <c r="D18" t="s" s="105">
         <v>74</v>
       </c>
       <c r="E18" s="95"/>
@@ -6959,7 +6938,7 @@
       <c r="G18" s="95"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
-      <c r="J18" t="s" s="111">
+      <c r="J18" t="s" s="105">
         <v>75</v>
       </c>
       <c r="K18" s="95"/>
@@ -6967,26 +6946,26 @@
       <c r="M18" s="95"/>
       <c r="N18" s="95"/>
       <c r="O18" s="95"/>
-      <c r="P18" t="s" s="115">
-        <v>50</v>
+      <c r="P18" t="s" s="106">
+        <v>62</v>
       </c>
       <c r="Q18" s="97"/>
       <c r="R18" s="97"/>
       <c r="S18" s="97"/>
       <c r="T18" s="98"/>
-      <c r="U18" t="s" s="113">
-        <v>69</v>
+      <c r="U18" t="s" s="107">
+        <v>48</v>
       </c>
       <c r="V18" s="95"/>
       <c r="W18" s="95"/>
       <c r="X18" s="95"/>
-      <c r="Y18" t="s" s="113">
-        <v>50</v>
-      </c>
-      <c r="Z18" s="114"/>
-      <c r="AA18" s="114"/>
-      <c r="AB18" s="114"/>
-      <c r="AC18" t="s" s="113">
+      <c r="Y18" t="s" s="107">
+        <v>49</v>
+      </c>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="108"/>
+      <c r="AC18" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AD18" s="95"/>
@@ -6997,7 +6976,7 @@
       <c r="AI18" s="95"/>
       <c r="AJ18" s="95"/>
       <c r="AK18" s="95"/>
-      <c r="AL18" t="s" s="113">
+      <c r="AL18" t="s" s="107">
         <v>50</v>
       </c>
       <c r="AM18" s="95"/>
@@ -7010,244 +6989,308 @@
       <c r="AT18" s="45"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="100"/>
-      <c r="AK19" s="100"/>
-      <c r="AL19" s="100"/>
-      <c r="AM19" s="100"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="100"/>
-      <c r="AP19" s="100"/>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="100"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="104"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="104">
+        <v>14</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" t="s" s="105">
+        <v>76</v>
+      </c>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" t="s" s="105">
+        <v>77</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="98"/>
+      <c r="U19" t="s" s="107">
+        <v>78</v>
+      </c>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="108"/>
+      <c r="AC19" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="45"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="117"/>
-      <c r="AP20" s="117"/>
-      <c r="AQ20" s="117"/>
-      <c r="AR20" s="117"/>
-      <c r="AS20" s="117"/>
-      <c r="AT20" s="104"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="104">
+        <v>15</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" t="s" s="105">
+        <v>79</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" t="s" s="105">
+        <v>80</v>
+      </c>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="98"/>
+      <c r="U20" t="s" s="107">
+        <v>78</v>
+      </c>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
+      <c r="AC20" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="45"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="117"/>
-      <c r="AP21" s="117"/>
-      <c r="AQ21" s="117"/>
-      <c r="AR21" s="117"/>
-      <c r="AS21" s="117"/>
-      <c r="AT21" s="104"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="104">
+        <v>16</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" t="s" s="105">
+        <v>81</v>
+      </c>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" t="s" s="105">
+        <v>82</v>
+      </c>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="98"/>
+      <c r="U21" t="s" s="107">
+        <v>78</v>
+      </c>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="108"/>
+      <c r="AC21" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="45"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
-      <c r="AP22" s="117"/>
-      <c r="AQ22" s="117"/>
-      <c r="AR22" s="117"/>
-      <c r="AS22" s="117"/>
-      <c r="AT22" s="104"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="104">
+        <v>17</v>
+      </c>
+      <c r="C22" s="95"/>
+      <c r="D22" t="s" s="105">
+        <v>83</v>
+      </c>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" t="s" s="105">
+        <v>84</v>
+      </c>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" t="s" s="109">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="98"/>
+      <c r="U22" t="s" s="107">
+        <v>78</v>
+      </c>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="45"/>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="117"/>
-      <c r="AO23" s="117"/>
-      <c r="AP23" s="117"/>
-      <c r="AQ23" s="117"/>
-      <c r="AR23" s="117"/>
-      <c r="AS23" s="117"/>
-      <c r="AT23" s="104"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="31"/>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="32"/>
@@ -7282,20 +7325,20 @@
       <c r="AD24" s="30"/>
       <c r="AE24" s="30"/>
       <c r="AF24" s="30"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="117"/>
-      <c r="AO24" s="117"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="117"/>
-      <c r="AS24" s="117"/>
-      <c r="AT24" s="104"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="31"/>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="32"/>
@@ -7330,20 +7373,20 @@
       <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="30"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="117"/>
-      <c r="AO25" s="117"/>
-      <c r="AP25" s="117"/>
-      <c r="AQ25" s="117"/>
-      <c r="AR25" s="117"/>
-      <c r="AS25" s="117"/>
-      <c r="AT25" s="104"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="30"/>
+      <c r="AT25" s="31"/>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="47"/>
@@ -7378,23 +7421,23 @@
       <c r="AD26" s="33"/>
       <c r="AE26" s="33"/>
       <c r="AF26" s="33"/>
-      <c r="AG26" s="102"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="103"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="103"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="103"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="118"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="33"/>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="156">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="AO2:AP2"/>
@@ -7519,9 +7562,41 @@
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="U17:X17"/>
     <mergeCell ref="U13:X13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="AL22:AS22"/>
+    <mergeCell ref="AL19:AS19"/>
+    <mergeCell ref="AL20:AS20"/>
+    <mergeCell ref="AL21:AS21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="U21:X21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U22">
       <formula1>"text,textarea,password,button,link,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7541,11 +7616,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="3.67188" style="119" customWidth="1"/>
-    <col min="24" max="27" width="2.85156" style="119" customWidth="1"/>
-    <col min="28" max="29" width="3.67188" style="119" customWidth="1"/>
-    <col min="30" max="33" width="2.85156" style="119" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="119" customWidth="1"/>
+    <col min="1" max="23" width="3.67188" style="110" customWidth="1"/>
+    <col min="24" max="27" width="2.85156" style="110" customWidth="1"/>
+    <col min="28" max="29" width="3.67188" style="110" customWidth="1"/>
+    <col min="30" max="33" width="2.85156" style="110" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -7589,7 +7664,7 @@
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
@@ -7679,8 +7754,8 @@
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="32"/>
-      <c r="B4" t="s" s="120">
-        <v>76</v>
+      <c r="B4" t="s" s="111">
+        <v>85</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -7739,7 +7814,7 @@
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
       <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
+      <c r="Y5" s="112"/>
       <c r="Z5" s="33"/>
       <c r="AA5" s="33"/>
       <c r="AB5" s="33"/>
@@ -7753,12 +7828,12 @@
       <c r="A6" s="32"/>
       <c r="B6" s="31"/>
       <c r="C6" t="s" s="74">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="83"/>
-      <c r="F6" t="s" s="121">
-        <v>78</v>
+      <c r="F6" t="s" s="113">
+        <v>87</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -7773,11 +7848,11 @@
       <c r="Q6" s="36"/>
       <c r="R6" s="57"/>
       <c r="S6" t="s" s="74">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T6" s="76"/>
       <c r="U6" t="s" s="74">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="V6" s="75"/>
       <c r="W6" s="75"/>
@@ -7795,7 +7870,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="122"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
       <c r="F7" s="33"/>
@@ -7812,11 +7887,11 @@
       <c r="Q7" s="33"/>
       <c r="R7" s="48"/>
       <c r="S7" t="s" s="74">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T7" s="76"/>
       <c r="U7" t="s" s="74">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="V7" s="75"/>
       <c r="W7" s="75"/>
@@ -7870,8 +7945,8 @@
       <c r="A9" s="32"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
-      <c r="D9" t="s" s="120">
-        <v>82</v>
+      <c r="D9" t="s" s="111">
+        <v>91</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -8012,12 +8087,12 @@
       <c r="A13" s="32"/>
       <c r="B13" s="31"/>
       <c r="C13" t="s" s="74">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="83"/>
-      <c r="F13" t="s" s="121">
-        <v>83</v>
+      <c r="F13" t="s" s="113">
+        <v>92</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -8032,11 +8107,11 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="57"/>
       <c r="S13" t="s" s="74">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T13" s="76"/>
       <c r="U13" t="s" s="74">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="V13" s="75"/>
       <c r="W13" s="75"/>
@@ -8054,7 +8129,7 @@
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="122"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
       <c r="F14" s="33"/>
@@ -8071,7 +8146,7 @@
       <c r="Q14" s="33"/>
       <c r="R14" s="48"/>
       <c r="S14" t="s" s="74">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T14" s="76"/>
       <c r="U14" t="s" s="74">
@@ -8129,8 +8204,8 @@
       <c r="A16" s="32"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
-      <c r="D16" t="s" s="120">
-        <v>84</v>
+      <c r="D16" t="s" s="111">
+        <v>93</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -8271,12 +8346,12 @@
       <c r="A20" s="32"/>
       <c r="B20" s="31"/>
       <c r="C20" t="s" s="74">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D20" s="76"/>
       <c r="E20" s="83"/>
-      <c r="F20" t="s" s="121">
-        <v>85</v>
+      <c r="F20" t="s" s="113">
+        <v>94</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
@@ -8291,11 +8366,11 @@
       <c r="Q20" s="36"/>
       <c r="R20" s="57"/>
       <c r="S20" t="s" s="74">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T20" s="76"/>
       <c r="U20" t="s" s="74">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="V20" s="75"/>
       <c r="W20" s="75"/>
@@ -8313,7 +8388,7 @@
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="122"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="33"/>
@@ -8330,7 +8405,7 @@
       <c r="Q21" s="33"/>
       <c r="R21" s="48"/>
       <c r="S21" t="s" s="74">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T21" s="76"/>
       <c r="U21" t="s" s="74">
@@ -8388,8 +8463,8 @@
       <c r="A23" s="32"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" t="s" s="120">
-        <v>87</v>
+      <c r="D23" t="s" s="111">
+        <v>96</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -8426,8 +8501,8 @@
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
       <c r="D24" s="30"/>
-      <c r="E24" t="s" s="120">
-        <v>88</v>
+      <c r="E24" t="s" s="111">
+        <v>97</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -8464,8 +8539,8 @@
       <c r="C25" s="32"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" t="s" s="120">
-        <v>89</v>
+      <c r="F25" t="s" s="111">
+        <v>98</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -8535,8 +8610,8 @@
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="30"/>
-      <c r="E27" t="s" s="120">
-        <v>90</v>
+      <c r="E27" t="s" s="111">
+        <v>99</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -8573,8 +8648,8 @@
       <c r="C28" s="32"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" t="s" s="120">
-        <v>91</v>
+      <c r="F28" t="s" s="111">
+        <v>100</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -8611,7 +8686,7 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="120"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -8647,7 +8722,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="123"/>
+      <c r="H30" s="115"/>
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
@@ -8748,12 +8823,12 @@
       <c r="A33" s="32"/>
       <c r="B33" s="31"/>
       <c r="C33" t="s" s="74">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D33" s="76"/>
       <c r="E33" s="83"/>
-      <c r="F33" t="s" s="121">
-        <v>92</v>
+      <c r="F33" t="s" s="113">
+        <v>101</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
@@ -8768,11 +8843,11 @@
       <c r="Q33" s="36"/>
       <c r="R33" s="57"/>
       <c r="S33" t="s" s="74">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T33" s="76"/>
       <c r="U33" t="s" s="74">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="V33" s="75"/>
       <c r="W33" s="75"/>
@@ -8790,7 +8865,7 @@
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="122"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="75"/>
       <c r="E34" s="75"/>
       <c r="F34" s="33"/>
@@ -8807,7 +8882,7 @@
       <c r="Q34" s="33"/>
       <c r="R34" s="48"/>
       <c r="S34" t="s" s="74">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T34" s="76"/>
       <c r="U34" t="s" s="74">
@@ -8900,8 +8975,8 @@
       <c r="A37" s="32"/>
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
-      <c r="D37" t="s" s="120">
-        <v>93</v>
+      <c r="D37" t="s" s="111">
+        <v>102</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -8927,7 +9002,7 @@
       <c r="Z37" s="30"/>
       <c r="AA37" s="30"/>
       <c r="AB37" s="30"/>
-      <c r="AC37" s="120"/>
+      <c r="AC37" s="111"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="31"/>
       <c r="AF37" s="32"/>
@@ -8938,8 +9013,8 @@
       <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="30"/>
-      <c r="E38" t="s" s="120">
-        <v>94</v>
+      <c r="E38" t="s" s="111">
+        <v>103</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -8972,12 +9047,12 @@
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="32"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="125"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" t="s" s="126">
-        <v>95</v>
+      <c r="F39" t="s" s="118">
+        <v>104</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -9003,14 +9078,14 @@
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="124"/>
-      <c r="AF39" s="125"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="117"/>
       <c r="AG39" s="31"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="32"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="125"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="117"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -9038,17 +9113,17 @@
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="125"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="117"/>
       <c r="AG40" s="31"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="32"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="125"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="117"/>
       <c r="D41" s="11"/>
-      <c r="E41" t="s" s="120">
-        <v>96</v>
+      <c r="E41" t="s" s="111">
+        <v>105</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -9075,18 +9150,18 @@
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
-      <c r="AE41" s="124"/>
-      <c r="AF41" s="125"/>
+      <c r="AE41" s="116"/>
+      <c r="AF41" s="117"/>
       <c r="AG41" s="31"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="32"/>
-      <c r="B42" s="124"/>
-      <c r="C42" s="125"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" t="s" s="126">
-        <v>97</v>
+      <c r="F42" t="s" s="118">
+        <v>106</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -9112,43 +9187,43 @@
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="125"/>
+      <c r="AE42" s="116"/>
+      <c r="AF42" s="117"/>
       <c r="AG42" s="31"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="32"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="128"/>
-      <c r="R43" s="128"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128"/>
-      <c r="V43" s="128"/>
-      <c r="W43" s="128"/>
-      <c r="X43" s="128"/>
-      <c r="Y43" s="128"/>
-      <c r="Z43" s="128"/>
-      <c r="AA43" s="128"/>
-      <c r="AB43" s="128"/>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="130"/>
-      <c r="AF43" s="125"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="112"/>
+      <c r="V43" s="112"/>
+      <c r="W43" s="112"/>
+      <c r="X43" s="112"/>
+      <c r="Y43" s="112"/>
+      <c r="Z43" s="112"/>
+      <c r="AA43" s="112"/>
+      <c r="AB43" s="112"/>
+      <c r="AC43" s="112"/>
+      <c r="AD43" s="112"/>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="117"/>
       <c r="AG43" s="31"/>
     </row>
     <row r="44" ht="16" customHeight="1">
@@ -9188,14 +9263,14 @@
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="32"/>
-      <c r="B45" s="124"/>
+      <c r="B45" s="116"/>
       <c r="C45" t="s" s="74">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="83"/>
-      <c r="F45" t="s" s="121">
-        <v>98</v>
+      <c r="F45" t="s" s="113">
+        <v>107</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
@@ -9210,11 +9285,11 @@
       <c r="Q45" s="36"/>
       <c r="R45" s="57"/>
       <c r="S45" t="s" s="74">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T45" s="76"/>
       <c r="U45" t="s" s="74">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="V45" s="75"/>
       <c r="W45" s="75"/>
@@ -9226,13 +9301,13 @@
       <c r="AC45" s="75"/>
       <c r="AD45" s="75"/>
       <c r="AE45" s="76"/>
-      <c r="AF45" s="125"/>
+      <c r="AF45" s="117"/>
       <c r="AG45" s="31"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="32"/>
-      <c r="B46" s="124"/>
-      <c r="C46" s="122"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="75"/>
       <c r="E46" s="75"/>
       <c r="F46" s="33"/>
@@ -9249,7 +9324,7 @@
       <c r="Q46" s="33"/>
       <c r="R46" s="48"/>
       <c r="S46" t="s" s="74">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T46" s="76"/>
       <c r="U46" t="s" s="74">
@@ -9265,50 +9340,50 @@
       <c r="AC46" s="75"/>
       <c r="AD46" s="75"/>
       <c r="AE46" s="76"/>
-      <c r="AF46" s="125"/>
+      <c r="AF46" s="117"/>
       <c r="AG46" s="31"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="32"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
-      <c r="R47" s="132"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="132"/>
-      <c r="U47" s="132"/>
-      <c r="V47" s="132"/>
-      <c r="W47" s="132"/>
-      <c r="X47" s="132"/>
-      <c r="Y47" s="132"/>
-      <c r="Z47" s="132"/>
-      <c r="AA47" s="132"/>
-      <c r="AB47" s="132"/>
-      <c r="AC47" s="132"/>
-      <c r="AD47" s="132"/>
-      <c r="AE47" s="133"/>
-      <c r="AF47" s="125"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="123"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="123"/>
+      <c r="Q47" s="123"/>
+      <c r="R47" s="123"/>
+      <c r="S47" s="123"/>
+      <c r="T47" s="123"/>
+      <c r="U47" s="123"/>
+      <c r="V47" s="123"/>
+      <c r="W47" s="123"/>
+      <c r="X47" s="123"/>
+      <c r="Y47" s="123"/>
+      <c r="Z47" s="123"/>
+      <c r="AA47" s="123"/>
+      <c r="AB47" s="123"/>
+      <c r="AC47" s="123"/>
+      <c r="AD47" s="123"/>
+      <c r="AE47" s="124"/>
+      <c r="AF47" s="117"/>
       <c r="AG47" s="31"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="32"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="125"/>
-      <c r="D48" t="s" s="120">
-        <v>99</v>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" t="s" s="111">
+        <v>108</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -9336,45 +9411,45 @@
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
       <c r="AD48" s="11"/>
-      <c r="AE48" s="124"/>
-      <c r="AF48" s="125"/>
+      <c r="AE48" s="116"/>
+      <c r="AF48" s="117"/>
       <c r="AG48" s="31"/>
     </row>
     <row r="49" ht="26.15" customHeight="1">
       <c r="A49" s="32"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="127"/>
-      <c r="D49" t="s" s="123">
-        <v>100</v>
-      </c>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="128"/>
-      <c r="L49" s="128"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="128"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="128"/>
-      <c r="R49" s="128"/>
-      <c r="S49" s="128"/>
-      <c r="T49" s="128"/>
-      <c r="U49" s="128"/>
-      <c r="V49" s="128"/>
-      <c r="W49" s="128"/>
-      <c r="X49" s="128"/>
-      <c r="Y49" s="128"/>
-      <c r="Z49" s="128"/>
-      <c r="AA49" s="128"/>
-      <c r="AB49" s="128"/>
-      <c r="AC49" s="128"/>
-      <c r="AD49" s="128"/>
-      <c r="AE49" s="130"/>
-      <c r="AF49" s="125"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="119"/>
+      <c r="D49" t="s" s="115">
+        <v>109</v>
+      </c>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="112"/>
+      <c r="R49" s="112"/>
+      <c r="S49" s="112"/>
+      <c r="T49" s="112"/>
+      <c r="U49" s="112"/>
+      <c r="V49" s="112"/>
+      <c r="W49" s="112"/>
+      <c r="X49" s="112"/>
+      <c r="Y49" s="112"/>
+      <c r="Z49" s="112"/>
+      <c r="AA49" s="112"/>
+      <c r="AB49" s="112"/>
+      <c r="AC49" s="112"/>
+      <c r="AD49" s="112"/>
+      <c r="AE49" s="121"/>
+      <c r="AF49" s="117"/>
       <c r="AG49" s="31"/>
     </row>
     <row r="50" ht="16" customHeight="1">
@@ -9416,12 +9491,12 @@
       <c r="A51" s="32"/>
       <c r="B51" s="31"/>
       <c r="C51" t="s" s="74">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D51" s="76"/>
       <c r="E51" s="83"/>
-      <c r="F51" t="s" s="121">
-        <v>101</v>
+      <c r="F51" t="s" s="113">
+        <v>110</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
@@ -9436,11 +9511,11 @@
       <c r="Q51" s="36"/>
       <c r="R51" s="57"/>
       <c r="S51" t="s" s="74">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T51" s="76"/>
       <c r="U51" t="s" s="74">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="V51" s="75"/>
       <c r="W51" s="75"/>
@@ -9458,7 +9533,7 @@
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="32"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="122"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="75"/>
       <c r="E52" s="75"/>
       <c r="F52" s="33"/>
@@ -9475,7 +9550,7 @@
       <c r="Q52" s="33"/>
       <c r="R52" s="48"/>
       <c r="S52" t="s" s="74">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="T52" s="76"/>
       <c r="U52" t="s" s="74">
@@ -9533,8 +9608,8 @@
       <c r="A54" s="32"/>
       <c r="B54" s="31"/>
       <c r="C54" s="32"/>
-      <c r="D54" t="s" s="120">
-        <v>102</v>
+      <c r="D54" t="s" s="111">
+        <v>111</v>
       </c>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
@@ -9570,8 +9645,8 @@
       <c r="A55" s="32"/>
       <c r="B55" s="31"/>
       <c r="C55" s="32"/>
-      <c r="D55" t="s" s="120">
-        <v>103</v>
+      <c r="D55" t="s" s="111">
+        <v>112</v>
       </c>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
@@ -9733,17 +9808,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="23" width="3.67188" style="134" customWidth="1"/>
-    <col min="24" max="27" width="2.85156" style="134" customWidth="1"/>
-    <col min="28" max="29" width="3.67188" style="134" customWidth="1"/>
-    <col min="30" max="33" width="2.85156" style="134" customWidth="1"/>
-    <col min="34" max="16384" width="3.67188" style="134" customWidth="1"/>
+    <col min="1" max="23" width="3.67188" style="125" customWidth="1"/>
+    <col min="24" max="27" width="2.85156" style="125" customWidth="1"/>
+    <col min="28" max="29" width="3.67188" style="125" customWidth="1"/>
+    <col min="30" max="33" width="2.85156" style="125" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -9787,7 +9862,7 @@
       </c>
       <c r="AC1" s="51"/>
       <c r="AD1" s="54">
-        <v>44141</v>
+        <v>44145</v>
       </c>
       <c r="AE1" s="51"/>
       <c r="AF1" s="51"/>
@@ -9877,8 +9952,8 @@
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="32"/>
-      <c r="B4" t="s" s="120">
-        <v>104</v>
+      <c r="B4" t="s" s="111">
+        <v>85</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -9915,14 +9990,580 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="30"/>
-      <c r="C5" t="s" s="120">
-        <v>105</v>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="31"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" t="s" s="74">
+        <v>86</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="57"/>
+      <c r="S6" t="s" s="74">
+        <v>88</v>
+      </c>
+      <c r="T6" s="76"/>
+      <c r="U6" t="s" s="74">
+        <v>89</v>
+      </c>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="31"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="48"/>
+      <c r="S7" t="s" s="74">
+        <v>90</v>
+      </c>
+      <c r="T7" s="76"/>
+      <c r="U7" t="s" s="74">
+        <v>89</v>
+      </c>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="31"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="31"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" t="s" s="111">
+        <v>114</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="31"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="31"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="31"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="127"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="128"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="129"/>
+      <c r="AG14" s="130"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.66667" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="23" width="3.67188" style="131" customWidth="1"/>
+    <col min="24" max="27" width="2.85156" style="131" customWidth="1"/>
+    <col min="28" max="29" width="3.67188" style="131" customWidth="1"/>
+    <col min="30" max="33" width="2.85156" style="131" customWidth="1"/>
+    <col min="34" max="16384" width="3.67188" style="131" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="50">
+        <v>19</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" t="s" s="52">
+        <v>28</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" t="s" s="50">
+        <v>23</v>
+      </c>
+      <c r="W1" s="51"/>
+      <c r="X1" t="s" s="50">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" t="s" s="50">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="54">
+        <v>44145</v>
+      </c>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="50">
+        <v>21</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" t="s" s="52">
+        <v>30</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" t="s" s="50">
+        <v>31</v>
+      </c>
+      <c r="W2" s="51"/>
+      <c r="X2" s="55">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" t="s" s="50">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="55">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="57"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" t="s" s="111">
+        <v>115</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="31"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" t="s" s="111">
+        <v>116</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
-      <c r="G5" t="s" s="120">
-        <v>106</v>
+      <c r="G5" t="s" s="111">
+        <v>117</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -9954,14 +10595,14 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="30"/>
-      <c r="C6" t="s" s="120">
-        <v>107</v>
+      <c r="C6" t="s" s="111">
+        <v>118</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" t="s" s="120">
-        <v>108</v>
+      <c r="G6" t="s" s="111">
+        <v>119</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
